--- a/stock_learning_rnn/training_invest_result.xlsx
+++ b/stock_learning_rnn/training_invest_result.xlsx
@@ -2144,11 +2144,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="A583" sqref="A583"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="F583" sqref="F583"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">

--- a/stock_learning_rnn/training_invest_result.xlsx
+++ b/stock_learning_rnn/training_invest_result.xlsx
@@ -2144,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
-      <selection activeCell="F583" sqref="F583"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>

--- a/stock_learning_rnn/training_invest_result.xlsx
+++ b/stock_learning_rnn/training_invest_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="1073">
   <si>
     <t>code</t>
   </si>
@@ -1772,6 +1772,1467 @@
   </si>
   <si>
     <t>샘표</t>
+  </si>
+  <si>
+    <t>서원</t>
+  </si>
+  <si>
+    <t>세기상사</t>
+  </si>
+  <si>
+    <t>세원정공</t>
+  </si>
+  <si>
+    <t>신세계건설</t>
+  </si>
+  <si>
+    <t>에넥스</t>
+  </si>
+  <si>
+    <t>에스엘</t>
+  </si>
+  <si>
+    <t>엔피씨</t>
+  </si>
+  <si>
+    <t>우리들제약</t>
+  </si>
+  <si>
+    <t>유성기업</t>
+  </si>
+  <si>
+    <t>이화산업</t>
+  </si>
+  <si>
+    <t>일양약품</t>
+  </si>
+  <si>
+    <t>일진다이아</t>
+  </si>
+  <si>
+    <t>조흥</t>
+  </si>
+  <si>
+    <t>진양화학</t>
+  </si>
+  <si>
+    <t>진흥기업</t>
+  </si>
+  <si>
+    <t>천일고속</t>
+  </si>
+  <si>
+    <t>케이씨</t>
+  </si>
+  <si>
+    <t>콤텍시스템</t>
+  </si>
+  <si>
+    <t>크라운해태홀딩스</t>
+  </si>
+  <si>
+    <t>포스코</t>
+  </si>
+  <si>
+    <t>풀무원</t>
+  </si>
+  <si>
+    <t>한국석유공업</t>
+  </si>
+  <si>
+    <t>한국유리공업</t>
+  </si>
+  <si>
+    <t>한국특수형강</t>
+  </si>
+  <si>
+    <t>한국프랜지공업</t>
+  </si>
+  <si>
+    <t>한양증권</t>
+  </si>
+  <si>
+    <t>한일시멘트</t>
+  </si>
+  <si>
+    <t>한창</t>
+  </si>
+  <si>
+    <t>현대미포조선</t>
+  </si>
+  <si>
+    <t>현대차투자증권</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>KG모빌리언스</t>
+  </si>
+  <si>
+    <t>SFA반도체</t>
+  </si>
+  <si>
+    <t>SKC 솔믹스</t>
+  </si>
+  <si>
+    <t>SM C&amp;C</t>
+  </si>
+  <si>
+    <t>TJ미디어</t>
+  </si>
+  <si>
+    <t>경남스틸</t>
+  </si>
+  <si>
+    <t>경동제약</t>
+  </si>
+  <si>
+    <t>나라엠앤디</t>
+  </si>
+  <si>
+    <t>네패스</t>
+  </si>
+  <si>
+    <t>대동스틸</t>
+  </si>
+  <si>
+    <t>대명코퍼레이션</t>
+  </si>
+  <si>
+    <t>대성엘텍</t>
+  </si>
+  <si>
+    <t>대화제약</t>
+  </si>
+  <si>
+    <t>동국알앤에스</t>
+  </si>
+  <si>
+    <t>동일기연</t>
+  </si>
+  <si>
+    <t>동진쎄미켐</t>
+  </si>
+  <si>
+    <t>디지틀조선</t>
+  </si>
+  <si>
+    <t>링네트</t>
+  </si>
+  <si>
+    <t>바이오제네틱스</t>
+  </si>
+  <si>
+    <t>버추얼텍</t>
+  </si>
+  <si>
+    <t>삼진</t>
+  </si>
+  <si>
+    <t>상지카일룸</t>
+  </si>
+  <si>
+    <t>서울전자통신</t>
+  </si>
+  <si>
+    <t>서호전기</t>
+  </si>
+  <si>
+    <t>선광</t>
+  </si>
+  <si>
+    <t>성우테크론</t>
+  </si>
+  <si>
+    <t>세동</t>
+  </si>
+  <si>
+    <t>아모텍</t>
+  </si>
+  <si>
+    <t>에스모</t>
+  </si>
+  <si>
+    <t>에스텍</t>
+  </si>
+  <si>
+    <t>에스텍파마</t>
+  </si>
+  <si>
+    <t>에스티큐브</t>
+  </si>
+  <si>
+    <t>에스피지</t>
+  </si>
+  <si>
+    <t>에임하이</t>
+  </si>
+  <si>
+    <t>에프에스티</t>
+  </si>
+  <si>
+    <t>엘컴텍</t>
+  </si>
+  <si>
+    <t>엠에스씨</t>
+  </si>
+  <si>
+    <t>오리엔트정공</t>
+  </si>
+  <si>
+    <t>오텍</t>
+  </si>
+  <si>
+    <t>우리기술투자</t>
+  </si>
+  <si>
+    <t>유라테크</t>
+  </si>
+  <si>
+    <t>이-글 벳</t>
+  </si>
+  <si>
+    <t>인성정보</t>
+  </si>
+  <si>
+    <t>정원엔시스</t>
+  </si>
+  <si>
+    <t>조아제약</t>
+  </si>
+  <si>
+    <t>진양제약</t>
+  </si>
+  <si>
+    <t>케이디 네이쳐 엔 바이오</t>
+  </si>
+  <si>
+    <t>케이에스피</t>
+  </si>
+  <si>
+    <t>케이피에프</t>
+  </si>
+  <si>
+    <t>코리아나</t>
+  </si>
+  <si>
+    <t>탑엔지니어링</t>
+  </si>
+  <si>
+    <t>태양</t>
+  </si>
+  <si>
+    <t>텔레칩스</t>
+  </si>
+  <si>
+    <t>토필드</t>
+  </si>
+  <si>
+    <t>투윈글로벌</t>
+  </si>
+  <si>
+    <t>파라텍</t>
+  </si>
+  <si>
+    <t>푸른저축은행</t>
+  </si>
+  <si>
+    <t>하림홀딩스</t>
+  </si>
+  <si>
+    <t>한일사료</t>
+  </si>
+  <si>
+    <t>한컴시큐어</t>
+  </si>
+  <si>
+    <t>형지I&amp;C</t>
+  </si>
+  <si>
+    <t>홈캐스트</t>
+  </si>
+  <si>
+    <t>희림</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>S&amp;T모티브</t>
+  </si>
+  <si>
+    <t>SK네트웍스</t>
+  </si>
+  <si>
+    <t>갤럭시아에스엠</t>
+  </si>
+  <si>
+    <t>계룡건설산업</t>
+  </si>
+  <si>
+    <t>고려아연</t>
+  </si>
+  <si>
+    <t>금호석유화학</t>
+  </si>
+  <si>
+    <t>넥센</t>
+  </si>
+  <si>
+    <t>녹십자홀딩스</t>
+  </si>
+  <si>
+    <t>농심</t>
+  </si>
+  <si>
+    <t>대덕GDS</t>
+  </si>
+  <si>
+    <t>대상</t>
+  </si>
+  <si>
+    <t>대유에이텍</t>
+  </si>
+  <si>
+    <t>대한방직</t>
+  </si>
+  <si>
+    <t>대한제당</t>
+  </si>
+  <si>
+    <t>대현</t>
+  </si>
+  <si>
+    <t>덕성</t>
+  </si>
+  <si>
+    <t>동남합성</t>
+  </si>
+  <si>
+    <t>동성화학</t>
+  </si>
+  <si>
+    <t>동아쏘시오홀딩스</t>
+  </si>
+  <si>
+    <t>동양철관</t>
+  </si>
+  <si>
+    <t>동원</t>
+  </si>
+  <si>
+    <t>디피씨</t>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+  </si>
+  <si>
+    <t>백광산업</t>
+  </si>
+  <si>
+    <t>백산</t>
+  </si>
+  <si>
+    <t>부산산업</t>
+  </si>
+  <si>
+    <t>사조대림</t>
+  </si>
+  <si>
+    <t>삼성출판사</t>
+  </si>
+  <si>
+    <t>세이브존I&amp;C</t>
+  </si>
+  <si>
+    <t>수산중공업</t>
+  </si>
+  <si>
+    <t>신대양제지</t>
+  </si>
+  <si>
+    <t>신성이엔지</t>
+  </si>
+  <si>
+    <t>신원</t>
+  </si>
+  <si>
+    <t>신한</t>
+  </si>
+  <si>
+    <t>영진약품</t>
+  </si>
+  <si>
+    <t>오리엔트바이오</t>
+  </si>
+  <si>
+    <t>웰바이오텍</t>
+  </si>
+  <si>
+    <t>윌비스</t>
+  </si>
+  <si>
+    <t>유니온</t>
+  </si>
+  <si>
+    <t>유수홀딩스</t>
+  </si>
+  <si>
+    <t>인디에프</t>
+  </si>
+  <si>
+    <t>조광페인트</t>
+  </si>
+  <si>
+    <t>지코</t>
+  </si>
+  <si>
+    <t>코리아써키트</t>
+  </si>
+  <si>
+    <t>코스모신소재</t>
+  </si>
+  <si>
+    <t>태광산업</t>
+  </si>
+  <si>
+    <t>태양금속공업</t>
+  </si>
+  <si>
+    <t>팜스코</t>
+  </si>
+  <si>
+    <t>퍼시스</t>
+  </si>
+  <si>
+    <t>페이퍼코리아</t>
+  </si>
+  <si>
+    <t>필룩스</t>
+  </si>
+  <si>
+    <t>하이트진로홀딩스</t>
+  </si>
+  <si>
+    <t>한국내화</t>
+  </si>
+  <si>
+    <t>한국단자공업</t>
+  </si>
+  <si>
+    <t>한라</t>
+  </si>
+  <si>
+    <t>한솔홈데코</t>
+  </si>
+  <si>
+    <t>한익스프레스</t>
+  </si>
+  <si>
+    <t>한진중공업홀딩스</t>
+  </si>
+  <si>
+    <t>한화갤러리아타임월드</t>
+  </si>
+  <si>
+    <t>현대중공업</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>CNH</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>YW</t>
+  </si>
+  <si>
+    <t>기산텔레콤</t>
+  </si>
+  <si>
+    <t>네이처셀</t>
+  </si>
+  <si>
+    <t>다우데이타</t>
+  </si>
+  <si>
+    <t>대동금속</t>
+  </si>
+  <si>
+    <t>대동기어</t>
+  </si>
+  <si>
+    <t>대양제지</t>
+  </si>
+  <si>
+    <t>대한광통신</t>
+  </si>
+  <si>
+    <t>더블유에프엠</t>
+  </si>
+  <si>
+    <t>동성화인텍</t>
+  </si>
+  <si>
+    <t>동아화성</t>
+  </si>
+  <si>
+    <t>동양에스텍</t>
+  </si>
+  <si>
+    <t>듀오백</t>
+  </si>
+  <si>
+    <t>디오</t>
+  </si>
+  <si>
+    <t>라이트론</t>
+  </si>
+  <si>
+    <t>레드로버</t>
+  </si>
+  <si>
+    <t>바이오빌</t>
+  </si>
+  <si>
+    <t>부방</t>
+  </si>
+  <si>
+    <t>비츠로시스</t>
+  </si>
+  <si>
+    <t>삼영이엔씨</t>
+  </si>
+  <si>
+    <t>삼지전자</t>
+  </si>
+  <si>
+    <t>세명전기</t>
+  </si>
+  <si>
+    <t>솔본</t>
+  </si>
+  <si>
+    <t>솔브레인</t>
+  </si>
+  <si>
+    <t>승일</t>
+  </si>
+  <si>
+    <t>에버다임</t>
+  </si>
+  <si>
+    <t>에스넷</t>
+  </si>
+  <si>
+    <t>오리엔탈정공</t>
+  </si>
+  <si>
+    <t>오스템</t>
+  </si>
+  <si>
+    <t>우리기술</t>
+  </si>
+  <si>
+    <t>우리산업홀딩스</t>
+  </si>
+  <si>
+    <t>원익QnC</t>
+  </si>
+  <si>
+    <t>원풍물산</t>
+  </si>
+  <si>
+    <t>위너지스</t>
+  </si>
+  <si>
+    <t>이라이콤</t>
+  </si>
+  <si>
+    <t>제미니투자</t>
+  </si>
+  <si>
+    <t>제일바이오</t>
+  </si>
+  <si>
+    <t>중앙오션</t>
+  </si>
+  <si>
+    <t>진로발효</t>
+  </si>
+  <si>
+    <t>카스</t>
+  </si>
+  <si>
+    <t>카카오M</t>
+  </si>
+  <si>
+    <t>케이엘넷</t>
+  </si>
+  <si>
+    <t>코나아이</t>
+  </si>
+  <si>
+    <t>코위버</t>
+  </si>
+  <si>
+    <t>큐로홀딩스</t>
+  </si>
+  <si>
+    <t>파세코</t>
+  </si>
+  <si>
+    <t>푸드웰</t>
+  </si>
+  <si>
+    <t>플레이위드</t>
+  </si>
+  <si>
+    <t>한국경제TV</t>
+  </si>
+  <si>
+    <t>한국선재</t>
+  </si>
+  <si>
+    <t>한국알콜</t>
+  </si>
+  <si>
+    <t>한국컴퓨터</t>
+  </si>
+  <si>
+    <t>한네트</t>
+  </si>
+  <si>
+    <t>한탑</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>NI스틸</t>
+  </si>
+  <si>
+    <t>OCI</t>
+  </si>
+  <si>
+    <t>SKC</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>강원랜드</t>
+  </si>
+  <si>
+    <t>경인양행</t>
+  </si>
+  <si>
+    <t>고려개발</t>
+  </si>
+  <si>
+    <t>광주신세계</t>
+  </si>
+  <si>
+    <t>국제약품</t>
+  </si>
+  <si>
+    <t>남성</t>
+  </si>
+  <si>
+    <t>넥센타이어</t>
+  </si>
+  <si>
+    <t>대덕전자</t>
+  </si>
+  <si>
+    <t>대동전자</t>
+  </si>
+  <si>
+    <t>대우부품</t>
+  </si>
+  <si>
+    <t>대웅제약</t>
+  </si>
+  <si>
+    <t>대원전선</t>
+  </si>
+  <si>
+    <t>대한유화</t>
+  </si>
+  <si>
+    <t>동국제강</t>
+  </si>
+  <si>
+    <t>동방아그로</t>
+  </si>
+  <si>
+    <t>동원수산</t>
+  </si>
+  <si>
+    <t>동원시스템즈</t>
+  </si>
+  <si>
+    <t>동화약품</t>
+  </si>
+  <si>
+    <t>만호제강</t>
+  </si>
+  <si>
+    <t>벽산</t>
+  </si>
+  <si>
+    <t>사조오양</t>
+  </si>
+  <si>
+    <t>삼광글라스</t>
+  </si>
+  <si>
+    <t>삼성SDI</t>
+  </si>
+  <si>
+    <t>삼영전자공업</t>
+  </si>
+  <si>
+    <t>삼영화학공업</t>
+  </si>
+  <si>
+    <t>삼진제약</t>
+  </si>
+  <si>
+    <t>삼화전기</t>
+  </si>
+  <si>
+    <t>서연</t>
+  </si>
+  <si>
+    <t>선도전기</t>
+  </si>
+  <si>
+    <t>성안</t>
+  </si>
+  <si>
+    <t>세방전지</t>
+  </si>
+  <si>
+    <t>신성통상</t>
+  </si>
+  <si>
+    <t>신풍제약</t>
+  </si>
+  <si>
+    <t>쌍용양회공업</t>
+  </si>
+  <si>
+    <t>씨아이테크</t>
+  </si>
+  <si>
+    <t>엔케이물산</t>
+  </si>
+  <si>
+    <t>오리온홀딩스</t>
+  </si>
+  <si>
+    <t>우리종금</t>
+  </si>
+  <si>
+    <t>원림</t>
+  </si>
+  <si>
+    <t>유니퀘스트</t>
+  </si>
+  <si>
+    <t>인팩</t>
+  </si>
+  <si>
+    <t>일성건설</t>
+  </si>
+  <si>
+    <t>일성신약</t>
+  </si>
+  <si>
+    <t>제일파마홀딩스</t>
+  </si>
+  <si>
+    <t>종근당홀딩스</t>
+  </si>
+  <si>
+    <t>진양폴리우레탄</t>
+  </si>
+  <si>
+    <t>케이티</t>
+  </si>
+  <si>
+    <t>코리안리</t>
+  </si>
+  <si>
+    <t>코오롱글로벌</t>
+  </si>
+  <si>
+    <t>하이스틸</t>
+  </si>
+  <si>
+    <t>한국가스공사</t>
+  </si>
+  <si>
+    <t>한국화장품제조</t>
+  </si>
+  <si>
+    <t>한독</t>
+  </si>
+  <si>
+    <t>한성기업</t>
+  </si>
+  <si>
+    <t>한솔피엔에스</t>
+  </si>
+  <si>
+    <t>한신기계공업</t>
+  </si>
+  <si>
+    <t>한올바이오파마</t>
+  </si>
+  <si>
+    <t>한화케미칼</t>
+  </si>
+  <si>
+    <t>현대상선</t>
+  </si>
+  <si>
+    <t>화천기공</t>
+  </si>
+  <si>
+    <t>C&amp;S자산관리</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>GS홈쇼핑</t>
+  </si>
+  <si>
+    <t>KTH</t>
+  </si>
+  <si>
+    <t>NHN한국사이버결제</t>
+  </si>
+  <si>
+    <t>SM Life Design</t>
+  </si>
+  <si>
+    <t>갑을메탈</t>
+  </si>
+  <si>
+    <t>경창산업</t>
+  </si>
+  <si>
+    <t>글로본</t>
+  </si>
+  <si>
+    <t>금화피에스시</t>
+  </si>
+  <si>
+    <t>나이스정보통신</t>
+  </si>
+  <si>
+    <t>대아티아이</t>
+  </si>
+  <si>
+    <t>대원미디어</t>
+  </si>
+  <si>
+    <t>대한뉴팜</t>
+  </si>
+  <si>
+    <t>도이치모터스</t>
+  </si>
+  <si>
+    <t>동화기업</t>
+  </si>
+  <si>
+    <t>디스플레이텍</t>
+  </si>
+  <si>
+    <t>라온시큐어</t>
+  </si>
+  <si>
+    <t>리노스</t>
+  </si>
+  <si>
+    <t>마크로젠</t>
+  </si>
+  <si>
+    <t>메디프론</t>
+  </si>
+  <si>
+    <t>미래SCI</t>
+  </si>
+  <si>
+    <t>바른전자</t>
+  </si>
+  <si>
+    <t>바이오스마트</t>
+  </si>
+  <si>
+    <t>삼륭물산</t>
+  </si>
+  <si>
+    <t>서울반도체</t>
+  </si>
+  <si>
+    <t>시공테크</t>
+  </si>
+  <si>
+    <t>신라에스지</t>
+  </si>
+  <si>
+    <t>신일제약</t>
+  </si>
+  <si>
+    <t>아난티</t>
+  </si>
+  <si>
+    <t>아이리버</t>
+  </si>
+  <si>
+    <t>아이에이</t>
+  </si>
+  <si>
+    <t>에스폴리텍</t>
+  </si>
+  <si>
+    <t>에이디칩스</t>
+  </si>
+  <si>
+    <t>에이치엘비파워</t>
+  </si>
+  <si>
+    <t>에이티넘인베스트</t>
+  </si>
+  <si>
+    <t>에이티테크놀러지</t>
+  </si>
+  <si>
+    <t>웰크론</t>
+  </si>
+  <si>
+    <t>유니셈</t>
+  </si>
+  <si>
+    <t>유아이엘</t>
+  </si>
+  <si>
+    <t>유진로봇</t>
+  </si>
+  <si>
+    <t>이그잭스</t>
+  </si>
+  <si>
+    <t>이랜텍</t>
+  </si>
+  <si>
+    <t>이루온</t>
+  </si>
+  <si>
+    <t>이화전기</t>
+  </si>
+  <si>
+    <t>인지디스플레</t>
+  </si>
+  <si>
+    <t>인터엠</t>
+  </si>
+  <si>
+    <t>인터파크홀딩스</t>
+  </si>
+  <si>
+    <t>잉크테크</t>
+  </si>
+  <si>
+    <t>정상제이엘에스</t>
+  </si>
+  <si>
+    <t>제룡전기</t>
+  </si>
+  <si>
+    <t>제이웨이</t>
+  </si>
+  <si>
+    <t>제일제강</t>
+  </si>
+  <si>
+    <t>좋은사람들</t>
+  </si>
+  <si>
+    <t>케이피엠테크</t>
+  </si>
+  <si>
+    <t>코다코</t>
+  </si>
+  <si>
+    <t>코데즈컴바인</t>
+  </si>
+  <si>
+    <t>코아시아홀딩스</t>
+  </si>
+  <si>
+    <t>코텍</t>
+  </si>
+  <si>
+    <t>큐로컴</t>
+  </si>
+  <si>
+    <t>키이스트</t>
+  </si>
+  <si>
+    <t>팜스웰바이오</t>
+  </si>
+  <si>
+    <t>포스코엠텍</t>
+  </si>
+  <si>
+    <t>프럼파스트</t>
+  </si>
+  <si>
+    <t>한국캐피탈</t>
+  </si>
+  <si>
+    <t>한국큐빅</t>
+  </si>
+  <si>
+    <t>한국팩키지</t>
+  </si>
+  <si>
+    <t>한빛소프트</t>
+  </si>
+  <si>
+    <t>한솔인티큐브</t>
+  </si>
+  <si>
+    <t>행남사</t>
+  </si>
+  <si>
+    <t>휴맥스홀딩스</t>
+  </si>
+  <si>
+    <t>휴비츠</t>
+  </si>
+  <si>
+    <t>CJ씨푸드</t>
+  </si>
+  <si>
+    <t>F&amp;F</t>
+  </si>
+  <si>
+    <t>KG케미칼</t>
+  </si>
+  <si>
+    <t>LG화학</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>S&amp;T중공업</t>
+  </si>
+  <si>
+    <t>SG충방</t>
+  </si>
+  <si>
+    <t>STX엔진</t>
+  </si>
+  <si>
+    <t>가온전선</t>
+  </si>
+  <si>
+    <t>강남제비스코</t>
+  </si>
+  <si>
+    <t>경동나비엔</t>
+  </si>
+  <si>
+    <t>광전자</t>
+  </si>
+  <si>
+    <t>극동유화</t>
+  </si>
+  <si>
+    <t>나노메딕스</t>
+  </si>
+  <si>
+    <t>남선알미늄</t>
+  </si>
+  <si>
+    <t>대동공업</t>
+  </si>
+  <si>
+    <t>대림비앤코</t>
+  </si>
+  <si>
+    <t>대유플러스</t>
+  </si>
+  <si>
+    <t>동양</t>
+  </si>
+  <si>
+    <t>동원F&amp;B</t>
+  </si>
+  <si>
+    <t>디티알오토모티브</t>
+  </si>
+  <si>
+    <t>모나리자</t>
+  </si>
+  <si>
+    <t>모나미</t>
+  </si>
+  <si>
+    <t>미래에셋대우</t>
+  </si>
+  <si>
+    <t>미창석유공업</t>
+  </si>
+  <si>
+    <t>범양건영</t>
+  </si>
+  <si>
+    <t>부광약품</t>
+  </si>
+  <si>
+    <t>삼성증권</t>
+  </si>
+  <si>
+    <t>삼성화재해상보험</t>
+  </si>
+  <si>
+    <t>삼호</t>
+  </si>
+  <si>
+    <t>삼화왕관</t>
+  </si>
+  <si>
+    <t>성보화학</t>
+  </si>
+  <si>
+    <t>세우글로벌</t>
+  </si>
+  <si>
+    <t>신도리코</t>
+  </si>
+  <si>
+    <t>신라교역</t>
+  </si>
+  <si>
+    <t>신한지주</t>
+  </si>
+  <si>
+    <t>써니전자</t>
+  </si>
+  <si>
+    <t>알보젠코리아</t>
+  </si>
+  <si>
+    <t>에이프로젠제약</t>
+  </si>
+  <si>
+    <t>우성사료</t>
+  </si>
+  <si>
+    <t>일신석재</t>
+  </si>
+  <si>
+    <t>제주은행</t>
+  </si>
+  <si>
+    <t>참엔지니어링</t>
+  </si>
+  <si>
+    <t>청호컴넷</t>
+  </si>
+  <si>
+    <t>카프로</t>
+  </si>
+  <si>
+    <t>태림포장</t>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+  </si>
+  <si>
+    <t>티에이치엔</t>
+  </si>
+  <si>
+    <t>한국전력공사</t>
+  </si>
+  <si>
+    <t>한국제지</t>
+  </si>
+  <si>
+    <t>한미사이언스</t>
+  </si>
+  <si>
+    <t>한솔홀딩스</t>
+  </si>
+  <si>
+    <t>한화에어로스페이스</t>
+  </si>
+  <si>
+    <t>한화투자증권</t>
+  </si>
+  <si>
+    <t>현대제철</t>
+  </si>
+  <si>
+    <t>현대종합상사</t>
+  </si>
+  <si>
+    <t>현대해상</t>
+  </si>
+  <si>
+    <t>화성산업</t>
+  </si>
+  <si>
+    <t>화승알앤에이</t>
+  </si>
+  <si>
+    <t>CJ오쇼핑</t>
+  </si>
+  <si>
+    <t>HB테크놀러지</t>
+  </si>
+  <si>
+    <t>JW신약</t>
+  </si>
+  <si>
+    <t>KCC건설</t>
+  </si>
+  <si>
+    <t>KH바텍</t>
+  </si>
+  <si>
+    <t>PN풍년</t>
+  </si>
+  <si>
+    <t>SBS콘텐츠허브</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>경남제약</t>
+  </si>
+  <si>
+    <t>고려신용정보</t>
+  </si>
+  <si>
+    <t>국보디자인</t>
+  </si>
+  <si>
+    <t>넥스트BT</t>
+  </si>
+  <si>
+    <t>녹원씨엔아이</t>
+  </si>
+  <si>
+    <t>대원산업</t>
+  </si>
+  <si>
+    <t>대한약품</t>
+  </si>
+  <si>
+    <t>데코앤이</t>
+  </si>
+  <si>
+    <t>동원개발</t>
+  </si>
+  <si>
+    <t>디케이디앤아이</t>
+  </si>
+  <si>
+    <t>메가스터디</t>
+  </si>
+  <si>
+    <t>모헨즈</t>
+  </si>
+  <si>
+    <t>바른손</t>
+  </si>
+  <si>
+    <t>보성파워텍</t>
+  </si>
+  <si>
+    <t>비츠로테크</t>
+  </si>
+  <si>
+    <t>비트컴퓨터</t>
+  </si>
+  <si>
+    <t>삼목에스폼</t>
+  </si>
+  <si>
+    <t>삼영엠텍</t>
+  </si>
+  <si>
+    <t>삼화네트웍스</t>
+  </si>
+  <si>
+    <t>서부T&amp;D</t>
+  </si>
+  <si>
+    <t>성우하이텍</t>
+  </si>
+  <si>
+    <t>스페코</t>
+  </si>
+  <si>
+    <t>신성델타테크</t>
+  </si>
+  <si>
+    <t>신원종합개발</t>
+  </si>
+  <si>
+    <t>심텍홀딩스</t>
+  </si>
+  <si>
+    <t>아이디스홀딩스</t>
+  </si>
+  <si>
+    <t>아이즈비전</t>
+  </si>
+  <si>
+    <t>아트라스BX</t>
+  </si>
+  <si>
+    <t>안국약품</t>
+  </si>
+  <si>
+    <t>안랩</t>
+  </si>
+  <si>
+    <t>알에프텍</t>
+  </si>
+  <si>
+    <t>에스엠</t>
+  </si>
+  <si>
+    <t>에프앤리퍼블릭</t>
+  </si>
+  <si>
+    <t>엑사이엔씨</t>
+  </si>
+  <si>
+    <t>예림당</t>
+  </si>
+  <si>
+    <t>오로라</t>
+  </si>
+  <si>
+    <t>오리콤</t>
+  </si>
+  <si>
+    <t>오픈베이스</t>
+  </si>
+  <si>
+    <t>원익홀딩스</t>
+  </si>
+  <si>
+    <t>원일특강</t>
+  </si>
+  <si>
+    <t>유니슨</t>
+  </si>
+  <si>
+    <t>유아이디</t>
+  </si>
+  <si>
+    <t>유진기업</t>
+  </si>
+  <si>
+    <t>이젠텍</t>
+  </si>
+  <si>
+    <t>이테크건설</t>
+  </si>
+  <si>
+    <t>인선이엔티</t>
+  </si>
+  <si>
+    <t>전파기지국</t>
+  </si>
+  <si>
+    <t>제이콘텐트리</t>
+  </si>
+  <si>
+    <t>중앙백신</t>
+  </si>
+  <si>
+    <t>지엔코</t>
+  </si>
+  <si>
+    <t>청보산업</t>
+  </si>
+  <si>
+    <t>초록뱀</t>
+  </si>
+  <si>
+    <t>코미팜</t>
+  </si>
+  <si>
+    <t>큐캐피탈</t>
+  </si>
+  <si>
+    <t>크린앤사이언스</t>
+  </si>
+  <si>
+    <t>태광</t>
+  </si>
+  <si>
+    <t>테라젠이텍스</t>
+  </si>
+  <si>
+    <t>토탈소프트</t>
+  </si>
+  <si>
+    <t>트레이스</t>
+  </si>
+  <si>
+    <t>파라다이스</t>
+  </si>
+  <si>
+    <t>평화정공</t>
+  </si>
+  <si>
+    <t>포스링크</t>
+  </si>
+  <si>
+    <t>프리엠스</t>
+  </si>
+  <si>
+    <t>피에스엠씨</t>
+  </si>
+  <si>
+    <t>한국가구</t>
+  </si>
+  <si>
+    <t>한국기업평가</t>
+  </si>
+  <si>
+    <t>한국테크놀로지</t>
+  </si>
+  <si>
+    <t>한양이엔지</t>
+  </si>
+  <si>
+    <t>현대아이비티</t>
+  </si>
+  <si>
+    <t>현진소재</t>
+  </si>
+  <si>
+    <t>화일약품</t>
   </si>
 </sst>
 </file>
@@ -1836,11 +3297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -2142,10 +3604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E582"/>
+  <dimension ref="A1:E1069"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A577" workbookViewId="0">
+      <selection activeCell="A583" sqref="A583:E1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -12051,6 +13513,8285 @@
         <v>993580.53499999992</v>
       </c>
     </row>
+    <row r="583" spans="1:5">
+      <c r="A583" s="4">
+        <v>21050</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C583" s="4">
+        <v>7.6293298043310642E-3</v>
+      </c>
+      <c r="D583" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E583" s="4">
+        <v>1064064.5460000001</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="4">
+        <v>2420</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C584" s="4">
+        <v>5.1123112440109253E-2</v>
+      </c>
+      <c r="D584" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E584" s="4">
+        <v>953856.76000000013</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="4">
+        <v>21820</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="C585" s="4">
+        <v>6.3527971506118766E-3</v>
+      </c>
+      <c r="D585" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E585" s="4">
+        <v>1021566.25</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="4">
+        <v>34300</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C586" s="4">
+        <v>3.6346692591905587E-2</v>
+      </c>
+      <c r="D586" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E586" s="4">
+        <v>977838.61749999982</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="4">
+        <v>11090</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C587" s="4">
+        <v>2.7654249221086499E-2</v>
+      </c>
+      <c r="D587" s="4">
+        <v>0.46612149477004999</v>
+      </c>
+      <c r="E587" s="4">
+        <v>945565.92649999994</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="4">
+        <v>5850</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C588" s="4">
+        <v>3.0813183635473251E-2</v>
+      </c>
+      <c r="D588" s="4">
+        <v>0.50467288494110107</v>
+      </c>
+      <c r="E588" s="4">
+        <v>1098172.8799999999</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="4">
+        <v>4250</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C589" s="4">
+        <v>1.269037183374166E-2</v>
+      </c>
+      <c r="D589" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E589" s="4">
+        <v>973411.35400000005</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="4">
+        <v>4720</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C590" s="4">
+        <v>2.560366690158844E-2</v>
+      </c>
+      <c r="D590" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E590" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="4">
+        <v>2920</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C591" s="4">
+        <v>2.798950299620628E-2</v>
+      </c>
+      <c r="D591" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E591" s="4">
+        <v>948817.42949999997</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="4">
+        <v>760</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C592" s="4">
+        <v>4.5773789286613457E-2</v>
+      </c>
+      <c r="D592" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E592" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="4">
+        <v>7570</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C593" s="4">
+        <v>2.6354251429438591E-2</v>
+      </c>
+      <c r="D593" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E593" s="4">
+        <v>935993.98000000021</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="4">
+        <v>81000</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C594" s="4">
+        <v>5.3928770124912262E-2</v>
+      </c>
+      <c r="D594" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E594" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="4">
+        <v>2600</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C595" s="4">
+        <v>2.3949069902300831E-2</v>
+      </c>
+      <c r="D595" s="4">
+        <v>0.5432242751121521</v>
+      </c>
+      <c r="E595" s="4">
+        <v>1253015.6000000001</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="4">
+        <v>51630</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="C596" s="4">
+        <v>1.080662105232477E-2</v>
+      </c>
+      <c r="D596" s="4">
+        <v>0.49766355752944952</v>
+      </c>
+      <c r="E596" s="4">
+        <v>930508.83875</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="4">
+        <v>2780</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C597" s="4">
+        <v>2.839254587888718E-2</v>
+      </c>
+      <c r="D597" s="4">
+        <v>0.52803736925125122</v>
+      </c>
+      <c r="E597" s="4">
+        <v>1185595.1305</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="4">
+        <v>650</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="C598" s="4">
+        <v>3.7426654249429703E-2</v>
+      </c>
+      <c r="D598" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E598" s="4">
+        <v>1032901.8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="4">
+        <v>29460</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="C599" s="4">
+        <v>2.8313979506492611E-2</v>
+      </c>
+      <c r="D599" s="4">
+        <v>0.51285046339035034</v>
+      </c>
+      <c r="E599" s="4">
+        <v>1375556.67</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="4">
+        <v>31820</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C600" s="4">
+        <v>5.003250390291214E-2</v>
+      </c>
+      <c r="D600" s="4">
+        <v>0.49766355752944952</v>
+      </c>
+      <c r="E600" s="4">
+        <v>951132.77799999993</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="4">
+        <v>5740</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C601" s="4">
+        <v>4.8935908824205399E-2</v>
+      </c>
+      <c r="D601" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E601" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="4">
+        <v>5490</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="C602" s="4">
+        <v>1.360587030649185E-2</v>
+      </c>
+      <c r="D602" s="4">
+        <v>0.53154206275939941</v>
+      </c>
+      <c r="E602" s="4">
+        <v>1059811.2250000001</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="4">
+        <v>17810</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C603" s="4">
+        <v>5.0547439604997628E-2</v>
+      </c>
+      <c r="D603" s="4">
+        <v>0.49766355752944952</v>
+      </c>
+      <c r="E603" s="4">
+        <v>921610.32500000007</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="4">
+        <v>4090</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C604" s="4">
+        <v>1.395882200449705E-2</v>
+      </c>
+      <c r="D604" s="4">
+        <v>0.53855139017105103</v>
+      </c>
+      <c r="E604" s="4">
+        <v>967395.4</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C605" s="4">
+        <v>1.935476437211037E-2</v>
+      </c>
+      <c r="D605" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E605" s="4">
+        <v>1150937.45</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="4">
+        <v>7280</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="C606" s="4">
+        <v>2.9025411233305931E-2</v>
+      </c>
+      <c r="D606" s="4">
+        <v>0.64485979080200195</v>
+      </c>
+      <c r="E606" s="4">
+        <v>1250062.7620000001</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="4">
+        <v>10100</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="C607" s="4">
+        <v>3.8194149732589722E-2</v>
+      </c>
+      <c r="D607" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E607" s="4">
+        <v>1039950.57</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="4">
+        <v>1750</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="C608" s="4">
+        <v>1.0260323062539101E-2</v>
+      </c>
+      <c r="D608" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E608" s="4">
+        <v>1107549.9099999999</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="4">
+        <v>3300</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C609" s="4">
+        <v>4.1019216179847717E-2</v>
+      </c>
+      <c r="D609" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E609" s="4">
+        <v>975036.2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="4">
+        <v>5110</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C610" s="4">
+        <v>6.5081700682640076E-2</v>
+      </c>
+      <c r="D610" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E610" s="4">
+        <v>924853.90300000005</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="4">
+        <v>10620</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="C611" s="4">
+        <v>1.152991689741611E-2</v>
+      </c>
+      <c r="D611" s="4">
+        <v>0.48014017939567571</v>
+      </c>
+      <c r="E611" s="4">
+        <v>1094503</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="4">
+        <v>1500</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C612" s="4">
+        <v>1.1056569404900071E-2</v>
+      </c>
+      <c r="D612" s="4">
+        <v>0.53855139017105103</v>
+      </c>
+      <c r="E612" s="4">
+        <v>1153148.6775</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="4">
+        <v>68790</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="C613" s="4">
+        <v>3.3965170383453369E-2</v>
+      </c>
+      <c r="D613" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E613" s="4">
+        <v>898451.52</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="4">
+        <v>46440</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="C614" s="4">
+        <v>3.8551211357116699E-2</v>
+      </c>
+      <c r="D614" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E614" s="4">
+        <v>970903.59000000008</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="4">
+        <v>36540</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C615" s="4">
+        <v>2.6265965774655339E-2</v>
+      </c>
+      <c r="D615" s="4">
+        <v>0.53037381172180176</v>
+      </c>
+      <c r="E615" s="4">
+        <v>1042753.375</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="4">
+        <v>57500</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C616" s="4">
+        <v>7.4909433722496033E-2</v>
+      </c>
+      <c r="D616" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E616" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="4">
+        <v>48550</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C617" s="4">
+        <v>2.801220677793026E-2</v>
+      </c>
+      <c r="D617" s="4">
+        <v>0.45677569508552551</v>
+      </c>
+      <c r="E617" s="4">
+        <v>1226316.30975</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="4">
+        <v>32540</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C618" s="4">
+        <v>2.667446993291378E-2</v>
+      </c>
+      <c r="D618" s="4">
+        <v>0.47897195816040039</v>
+      </c>
+      <c r="E618" s="4">
+        <v>962491.24000000011</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="4">
+        <v>39240</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="C619" s="4">
+        <v>2.8704969212412831E-2</v>
+      </c>
+      <c r="D619" s="4">
+        <v>0.51985979080200195</v>
+      </c>
+      <c r="E619" s="4">
+        <v>1033726.21</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="4">
+        <v>11040</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C620" s="4">
+        <v>1.613557152450085E-2</v>
+      </c>
+      <c r="D620" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E620" s="4">
+        <v>921016.10999999987</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="4">
+        <v>51490</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C621" s="4">
+        <v>4.5108791440725327E-2</v>
+      </c>
+      <c r="D621" s="4">
+        <v>0.51168227195739746</v>
+      </c>
+      <c r="E621" s="4">
+        <v>1003161.49075</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="4">
+        <v>33640</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="C622" s="4">
+        <v>1.844709180295467E-2</v>
+      </c>
+      <c r="D622" s="4">
+        <v>0.49649533629417419</v>
+      </c>
+      <c r="E622" s="4">
+        <v>844000.76800000004</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="4">
+        <v>48470</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="C623" s="4">
+        <v>3.4967929124832153E-2</v>
+      </c>
+      <c r="D623" s="4">
+        <v>0.47313085198402399</v>
+      </c>
+      <c r="E623" s="4">
+        <v>1221660.4492500001</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="4">
+        <v>7720</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C624" s="4">
+        <v>5.3397677838802338E-3</v>
+      </c>
+      <c r="D624" s="4">
+        <v>0.51518690586090088</v>
+      </c>
+      <c r="E624" s="4">
+        <v>1665303.1745</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="4">
+        <v>25440</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="C625" s="4">
+        <v>1.7306191846728321E-2</v>
+      </c>
+      <c r="D625" s="4">
+        <v>0.51168227195739746</v>
+      </c>
+      <c r="E625" s="4">
+        <v>1122936.91025</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="4">
+        <v>67080</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C626" s="4">
+        <v>5.0377294421195977E-2</v>
+      </c>
+      <c r="D626" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E626" s="4">
+        <v>869348.9</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="4">
+        <v>75970</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="C627" s="4">
+        <v>5.6598439812660217E-2</v>
+      </c>
+      <c r="D627" s="4">
+        <v>0.5105140209197998</v>
+      </c>
+      <c r="E627" s="4">
+        <v>1001076.36025</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="4">
+        <v>32960</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="C628" s="4">
+        <v>3.8162827491760247E-2</v>
+      </c>
+      <c r="D628" s="4">
+        <v>0.51518690586090088</v>
+      </c>
+      <c r="E628" s="4">
+        <v>1038494.6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="4">
+        <v>5290</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C629" s="4">
+        <v>2.8443524613976479E-2</v>
+      </c>
+      <c r="D629" s="4">
+        <v>0.52219623327255249</v>
+      </c>
+      <c r="E629" s="4">
+        <v>1249604.95</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="4">
+        <v>33130</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C630" s="4">
+        <v>5.0528433173894882E-2</v>
+      </c>
+      <c r="D630" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E630" s="4">
+        <v>936729.45175000001</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="4">
+        <v>42500</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C631" s="4">
+        <v>5.3596697747707367E-2</v>
+      </c>
+      <c r="D631" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E631" s="4">
+        <v>942657.71600000001</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="4">
+        <v>44480</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C632" s="4">
+        <v>4.9727071076631553E-2</v>
+      </c>
+      <c r="D632" s="4">
+        <v>0.49649533629417419</v>
+      </c>
+      <c r="E632" s="4">
+        <v>951756.39999999991</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="4">
+        <v>36620</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C633" s="4">
+        <v>5.5270496755838387E-2</v>
+      </c>
+      <c r="D633" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E633" s="4">
+        <v>880054.92475000001</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="4">
+        <v>32750</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C634" s="4">
+        <v>1.181918475776911E-2</v>
+      </c>
+      <c r="D634" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E634" s="4">
+        <v>1291819.8430000001</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="4">
+        <v>42940</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C635" s="4">
+        <v>6.4521864056587219E-2</v>
+      </c>
+      <c r="D635" s="4">
+        <v>0.52570092678070068</v>
+      </c>
+      <c r="E635" s="4">
+        <v>1221160.6017499999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="4">
+        <v>27040</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="C636" s="4">
+        <v>4.3905299156904221E-2</v>
+      </c>
+      <c r="D636" s="4">
+        <v>0.53504675626754761</v>
+      </c>
+      <c r="E636" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="4">
+        <v>65710</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C637" s="4">
+        <v>3.3689845353364938E-2</v>
+      </c>
+      <c r="D637" s="4">
+        <v>0.52686917781829834</v>
+      </c>
+      <c r="E637" s="4">
+        <v>926916.31</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="4">
+        <v>3100</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C638" s="4">
+        <v>2.139246836304665E-2</v>
+      </c>
+      <c r="D638" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E638" s="4">
+        <v>943321.65249999985</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="4">
+        <v>45300</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="C639" s="4">
+        <v>3.6216560751199722E-2</v>
+      </c>
+      <c r="D639" s="4">
+        <v>0.49065420031547552</v>
+      </c>
+      <c r="E639" s="4">
+        <v>1091024.37925</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="4">
+        <v>53060</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="C640" s="4">
+        <v>3.0223025009036061E-2</v>
+      </c>
+      <c r="D640" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E640" s="4">
+        <v>909443.86399999983</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="4">
+        <v>52710</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C641" s="4">
+        <v>3.7816952913999557E-2</v>
+      </c>
+      <c r="D641" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E641" s="4">
+        <v>981837.8274999999</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="4">
+        <v>73070</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="C642" s="4">
+        <v>1.8965482711791989E-2</v>
+      </c>
+      <c r="D642" s="4">
+        <v>0.53387850522994995</v>
+      </c>
+      <c r="E642" s="4">
+        <v>1890390.73</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="4">
+        <v>69510</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="C643" s="4">
+        <v>2.8128460049629211E-2</v>
+      </c>
+      <c r="D643" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E643" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="4">
+        <v>41910</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C644" s="4">
+        <v>4.7041065990924842E-2</v>
+      </c>
+      <c r="D644" s="4">
+        <v>0.46144860982894897</v>
+      </c>
+      <c r="E644" s="4">
+        <v>955427.80499999993</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="4">
+        <v>52020</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C645" s="4">
+        <v>2.6419047266244888E-2</v>
+      </c>
+      <c r="D645" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E645" s="4">
+        <v>1276323.8095</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="4">
+        <v>58610</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C646" s="4">
+        <v>3.1926505267620087E-2</v>
+      </c>
+      <c r="D646" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E646" s="4">
+        <v>1130916.192</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="4">
+        <v>43580</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="C647" s="4">
+        <v>3.7144683301448822E-2</v>
+      </c>
+      <c r="D647" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E647" s="4">
+        <v>1004614.4605</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="4">
+        <v>36810</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="C648" s="4">
+        <v>3.5605870187282562E-2</v>
+      </c>
+      <c r="D648" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E648" s="4">
+        <v>953430.30625000002</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="4">
+        <v>37950</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="C649" s="4">
+        <v>7.9991012811660767E-2</v>
+      </c>
+      <c r="D649" s="4">
+        <v>0.56191587448120117</v>
+      </c>
+      <c r="E649" s="4">
+        <v>960409.48149999999</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="4">
+        <v>9780</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="C650" s="4">
+        <v>6.9228440523147583E-2</v>
+      </c>
+      <c r="D650" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E650" s="4">
+        <v>883507.65999999992</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="4">
+        <v>65500</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="C651" s="4">
+        <v>6.8282134830951691E-2</v>
+      </c>
+      <c r="D651" s="4">
+        <v>0.48364487290382391</v>
+      </c>
+      <c r="E651" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="4">
+        <v>67170</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="C652" s="4">
+        <v>2.647403068840504E-2</v>
+      </c>
+      <c r="D652" s="4">
+        <v>0.51518690586090088</v>
+      </c>
+      <c r="E652" s="4">
+        <v>1184132.2375</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="4">
+        <v>41190</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C653" s="4">
+        <v>2.5294359773397449E-2</v>
+      </c>
+      <c r="D653" s="4">
+        <v>0.52686917781829834</v>
+      </c>
+      <c r="E653" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="4">
+        <v>48430</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="C654" s="4">
+        <v>4.4513430446386337E-2</v>
+      </c>
+      <c r="D654" s="4">
+        <v>0.48364487290382391</v>
+      </c>
+      <c r="E654" s="4">
+        <v>966664.31</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="C655" s="4">
+        <v>3.5928431898355477E-2</v>
+      </c>
+      <c r="D655" s="4">
+        <v>0.46612149477004999</v>
+      </c>
+      <c r="E655" s="4">
+        <v>1076840.5742500001</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="4">
+        <v>33230</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C656" s="4">
+        <v>3.5713713616132743E-2</v>
+      </c>
+      <c r="D656" s="4">
+        <v>0.46728971600532532</v>
+      </c>
+      <c r="E656" s="4">
+        <v>927863.04</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="4">
+        <v>45510</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="C657" s="4">
+        <v>4.7201491892337799E-2</v>
+      </c>
+      <c r="D657" s="4">
+        <v>0.54205608367919922</v>
+      </c>
+      <c r="E657" s="4">
+        <v>933950.92349999992</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="4">
+        <v>34940</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="C658" s="4">
+        <v>1.523102819919586E-2</v>
+      </c>
+      <c r="D658" s="4">
+        <v>0.46612149477004999</v>
+      </c>
+      <c r="E658" s="4">
+        <v>899798.6925</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="4">
+        <v>7370</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C659" s="4">
+        <v>3.1052853912115101E-2</v>
+      </c>
+      <c r="D659" s="4">
+        <v>0.47739601135253912</v>
+      </c>
+      <c r="E659" s="4">
+        <v>942973.60149999976</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="4">
+        <v>72520</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="C660" s="4">
+        <v>2.2494319826364521E-2</v>
+      </c>
+      <c r="D660" s="4">
+        <v>0.55607473850250244</v>
+      </c>
+      <c r="E660" s="4">
+        <v>839933.19949999999</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="4">
+        <v>73010</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="C661" s="4">
+        <v>1.2507587671279911E-2</v>
+      </c>
+      <c r="D661" s="4">
+        <v>0.59112149477005005</v>
+      </c>
+      <c r="E661" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="4">
+        <v>24880</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="C662" s="4">
+        <v>2.218765206634998E-2</v>
+      </c>
+      <c r="D662" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E662" s="4">
+        <v>951089.62300000002</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="4">
+        <v>27050</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C663" s="4">
+        <v>4.6919804066419601E-2</v>
+      </c>
+      <c r="D663" s="4">
+        <v>0.47313085198402399</v>
+      </c>
+      <c r="E663" s="4">
+        <v>931677.32799999998</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="4">
+        <v>65130</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C664" s="4">
+        <v>2.836202830076218E-2</v>
+      </c>
+      <c r="D664" s="4">
+        <v>0.47663551568984991</v>
+      </c>
+      <c r="E664" s="4">
+        <v>1006980.4925000001</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="4">
+        <v>53620</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C665" s="4">
+        <v>3.6223709583282471E-2</v>
+      </c>
+      <c r="D665" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E665" s="4">
+        <v>1037536.85</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="4">
+        <v>54450</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="C666" s="4">
+        <v>1.3079434633255E-2</v>
+      </c>
+      <c r="D666" s="4">
+        <v>0.51752334833145142</v>
+      </c>
+      <c r="E666" s="4">
+        <v>940389.66999999993</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="4">
+        <v>57880</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="C667" s="4">
+        <v>5.1267065107822418E-2</v>
+      </c>
+      <c r="D667" s="4">
+        <v>0.48282098770141602</v>
+      </c>
+      <c r="E667" s="4">
+        <v>830262.74624999997</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="4">
+        <v>66410</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="C668" s="4">
+        <v>6.027553603053093E-2</v>
+      </c>
+      <c r="D668" s="4">
+        <v>0.47377938032150269</v>
+      </c>
+      <c r="E668" s="4">
+        <v>1213062.9125000001</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="4">
+        <v>33540</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C669" s="4">
+        <v>3.3270951360464103E-2</v>
+      </c>
+      <c r="D669" s="4">
+        <v>0.47546729445457458</v>
+      </c>
+      <c r="E669" s="4">
+        <v>1016306.278</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="4">
+        <v>7330</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="C670" s="4">
+        <v>3.4770991653203957E-2</v>
+      </c>
+      <c r="D670" s="4">
+        <v>0.46144860982894897</v>
+      </c>
+      <c r="E670" s="4">
+        <v>1035782.407</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="4">
+        <v>24660</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C671" s="4">
+        <v>4.0002822875976563E-2</v>
+      </c>
+      <c r="D671" s="4">
+        <v>0.44158878922462458</v>
+      </c>
+      <c r="E671" s="4">
+        <v>944214.54374999995</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="4">
+        <v>5860</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="C672" s="4">
+        <v>2.7243124321103099E-2</v>
+      </c>
+      <c r="D672" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E672" s="4">
+        <v>1069336.5090000001</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="4">
+        <v>54920</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C673" s="4">
+        <v>1.6117943450808529E-2</v>
+      </c>
+      <c r="D673" s="4">
+        <v>0.49065420031547552</v>
+      </c>
+      <c r="E673" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="4">
+        <v>11080</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="C674" s="4">
+        <v>4.8520758748054497E-2</v>
+      </c>
+      <c r="D674" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E674" s="4">
+        <v>957752.94049999991</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="4">
+        <v>64240</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C675" s="4">
+        <v>4.080779105424881E-2</v>
+      </c>
+      <c r="D675" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E675" s="4">
+        <v>876517.12</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="4">
+        <v>37440</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C676" s="4">
+        <v>1.050480455160141E-2</v>
+      </c>
+      <c r="D676" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E676" s="4">
+        <v>927416.24149999989</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="4">
+        <v>5940</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C677" s="4">
+        <v>2.1364262327551838E-2</v>
+      </c>
+      <c r="D677" s="4">
+        <v>0.54789721965789795</v>
+      </c>
+      <c r="E677" s="4">
+        <v>1056487.9475</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="4">
+        <v>64960</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C678" s="4">
+        <v>2.5820542126894001E-2</v>
+      </c>
+      <c r="D678" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E678" s="4">
+        <v>977010.69749999989</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="4">
+        <v>1740</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C679" s="4">
+        <v>7.0769833400845528E-3</v>
+      </c>
+      <c r="D679" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E679" s="4">
+        <v>916418.05599999998</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="4">
+        <v>11420</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C680" s="4">
+        <v>2.1225074306130409E-2</v>
+      </c>
+      <c r="D680" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E680" s="4">
+        <v>1238884.4639999999</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="4">
+        <v>13580</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C681" s="4">
+        <v>1.1202313937246799E-2</v>
+      </c>
+      <c r="D681" s="4">
+        <v>0.51518690586090088</v>
+      </c>
+      <c r="E681" s="4">
+        <v>984236.63</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5">
+      <c r="A682" s="4">
+        <v>10130</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C682" s="4">
+        <v>2.5184206664562229E-2</v>
+      </c>
+      <c r="D682" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E682" s="4">
+        <v>1052196.1499999999</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" s="4">
+        <v>11780</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C683" s="4">
+        <v>1.9447999075055119E-2</v>
+      </c>
+      <c r="D683" s="4">
+        <v>0.45560747385025019</v>
+      </c>
+      <c r="E683" s="4">
+        <v>940372.75499999989</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" s="4">
+        <v>5720</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C684" s="4">
+        <v>5.2634403109550483E-2</v>
+      </c>
+      <c r="D684" s="4">
+        <v>0.51168227195739746</v>
+      </c>
+      <c r="E684" s="4">
+        <v>1081210.2794999999</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="4">
+        <v>5250</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C685" s="4">
+        <v>2.3731006309390072E-2</v>
+      </c>
+      <c r="D685" s="4">
+        <v>0.51752334833145142</v>
+      </c>
+      <c r="E685" s="4">
+        <v>954461.57500000019</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="4">
+        <v>4370</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C686" s="4">
+        <v>3.7075106054544449E-2</v>
+      </c>
+      <c r="D686" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E686" s="4">
+        <v>978499.3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="4">
+        <v>4130</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C687" s="4">
+        <v>2.6585448533296589E-2</v>
+      </c>
+      <c r="D687" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E687" s="4">
+        <v>1195391.94</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="4">
+        <v>1680</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="C688" s="4">
+        <v>3.1462021172046661E-2</v>
+      </c>
+      <c r="D688" s="4">
+        <v>0.4497663676738739</v>
+      </c>
+      <c r="E688" s="4">
+        <v>1048373.4825</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="4">
+        <v>2880</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="C689" s="4">
+        <v>4.179377481341362E-2</v>
+      </c>
+      <c r="D689" s="4">
+        <v>0.50116825103759766</v>
+      </c>
+      <c r="E689" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="4">
+        <v>1070</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="C690" s="4">
+        <v>4.81526218354702E-2</v>
+      </c>
+      <c r="D690" s="4">
+        <v>0.54906541109085083</v>
+      </c>
+      <c r="E690" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="4">
+        <v>1790</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="C691" s="4">
+        <v>1.3162834569811819E-2</v>
+      </c>
+      <c r="D691" s="4">
+        <v>0.49649533629417419</v>
+      </c>
+      <c r="E691" s="4">
+        <v>1040240.0475</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="4">
+        <v>16090</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="C692" s="4">
+        <v>4.6684678643941879E-2</v>
+      </c>
+      <c r="D692" s="4">
+        <v>0.45911213755607599</v>
+      </c>
+      <c r="E692" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="4">
+        <v>4830</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="C693" s="4">
+        <v>4.6299401670694351E-2</v>
+      </c>
+      <c r="D693" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E693" s="4">
+        <v>998325.20700000005</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="4">
+        <v>23450</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C694" s="4">
+        <v>2.6808325201272961E-2</v>
+      </c>
+      <c r="D694" s="4">
+        <v>0.45443925261497498</v>
+      </c>
+      <c r="E694" s="4">
+        <v>982899.44499999995</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="4">
+        <v>5190</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C695" s="4">
+        <v>3.622688353061676E-2</v>
+      </c>
+      <c r="D695" s="4">
+        <v>0.45327103137969971</v>
+      </c>
+      <c r="E695" s="4">
+        <v>1036914.765</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="4">
+        <v>640</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C696" s="4">
+        <v>7.64150470495224E-2</v>
+      </c>
+      <c r="D696" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E696" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="4">
+        <v>8970</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="C697" s="4">
+        <v>2.0999021828174591E-2</v>
+      </c>
+      <c r="D697" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E697" s="4">
+        <v>1122998.824</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" s="4">
+        <v>3580</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C698" s="4">
+        <v>6.7481160163879395E-2</v>
+      </c>
+      <c r="D698" s="4">
+        <v>0.48014017939567571</v>
+      </c>
+      <c r="E698" s="4">
+        <v>1293508.9950000001</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="4">
+        <v>26890</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C699" s="4">
+        <v>2.9186185449361801E-2</v>
+      </c>
+      <c r="D699" s="4">
+        <v>0.54088783264160156</v>
+      </c>
+      <c r="E699" s="4">
+        <v>1034794.3255</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="4">
+        <v>9200</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C700" s="4">
+        <v>1.181019097566605E-2</v>
+      </c>
+      <c r="D700" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E700" s="4">
+        <v>1006556.55325</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="4">
+        <v>1340</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="C701" s="4">
+        <v>1.009116508066654E-2</v>
+      </c>
+      <c r="D701" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E701" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="4">
+        <v>35150</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C702" s="4">
+        <v>3.0572781339287761E-2</v>
+      </c>
+      <c r="D702" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E702" s="4">
+        <v>1054213.76</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="4">
+        <v>11390</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="C703" s="4">
+        <v>3.814377635717392E-2</v>
+      </c>
+      <c r="D703" s="4">
+        <v>0.48364487290382391</v>
+      </c>
+      <c r="E703" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="4">
+        <v>3960</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C704" s="4">
+        <v>2.8678504750132561E-2</v>
+      </c>
+      <c r="D704" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E704" s="4">
+        <v>1540068.4450000001</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="4">
+        <v>68290</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="C705" s="4">
+        <v>2.2255860269069672E-2</v>
+      </c>
+      <c r="D705" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E705" s="4">
+        <v>947815.47</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="4">
+        <v>67830</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="C706" s="4">
+        <v>1.4939700253307819E-2</v>
+      </c>
+      <c r="D706" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E706" s="4">
+        <v>1000505.079</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="4">
+        <v>17550</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C707" s="4">
+        <v>3.6621823906898499E-2</v>
+      </c>
+      <c r="D707" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E707" s="4">
+        <v>977599.13799999992</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="4">
+        <v>16590</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C708" s="4">
+        <v>2.9984701424837109E-2</v>
+      </c>
+      <c r="D708" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E708" s="4">
+        <v>1064445.5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="4">
+        <v>11930</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C709" s="4">
+        <v>8.5151130333542824E-3</v>
+      </c>
+      <c r="D709" s="4">
+        <v>0.49065420031547552</v>
+      </c>
+      <c r="E709" s="4">
+        <v>1105932.71</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="4">
+        <v>9270</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C710" s="4">
+        <v>4.265995230525732E-3</v>
+      </c>
+      <c r="D710" s="4">
+        <v>0.51168227195739746</v>
+      </c>
+      <c r="E710" s="4">
+        <v>1370798.9737499999</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="4">
+        <v>5450</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C711" s="4">
+        <v>1.0852323845028881E-2</v>
+      </c>
+      <c r="D711" s="4">
+        <v>0.51752334833145142</v>
+      </c>
+      <c r="E711" s="4">
+        <v>810864.97000000009</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="4">
+        <v>3520</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C712" s="4">
+        <v>3.5624079406261437E-2</v>
+      </c>
+      <c r="D712" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E712" s="4">
+        <v>1178871.3115000001</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="4">
+        <v>2630</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C713" s="4">
+        <v>1.519831363111734E-2</v>
+      </c>
+      <c r="D713" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E713" s="4">
+        <v>873007.25274999999</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="4">
+        <v>10600</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C714" s="4">
+        <v>2.5209498126059771E-3</v>
+      </c>
+      <c r="D714" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E714" s="4">
+        <v>894181.01850000001</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="4">
+        <v>8600</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C715" s="4">
+        <v>2.3847531527280811E-2</v>
+      </c>
+      <c r="D715" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E715" s="4">
+        <v>870975.06949999998</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="4">
+        <v>910</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="C716" s="4">
+        <v>3.758799284696579E-3</v>
+      </c>
+      <c r="D716" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E716" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="4">
+        <v>700</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="C717" s="4">
+        <v>1.153771113604307E-2</v>
+      </c>
+      <c r="D717" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E717" s="4">
+        <v>1048116.321</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="4">
+        <v>14990</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="C718" s="4">
+        <v>9.4970408827066422E-3</v>
+      </c>
+      <c r="D718" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E718" s="4">
+        <v>841900.11749999947</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="4">
+        <v>4910</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="C719" s="4">
+        <v>3.6270815879106522E-2</v>
+      </c>
+      <c r="D719" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E719" s="4">
+        <v>927600.625</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="4">
+        <v>10580</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="C720" s="4">
+        <v>2.7474934235215191E-2</v>
+      </c>
+      <c r="D720" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E720" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="4">
+        <v>7810</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C721" s="4">
+        <v>3.5075102001428597E-2</v>
+      </c>
+      <c r="D721" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E721" s="4">
+        <v>1069558.72</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="4">
+        <v>5070</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="C722" s="4">
+        <v>3.2089337706565857E-2</v>
+      </c>
+      <c r="D722" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E722" s="4">
+        <v>1331175.23</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="4">
+        <v>3240</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C723" s="4">
+        <v>2.0456105470657349E-2</v>
+      </c>
+      <c r="D723" s="4">
+        <v>0.50817757844924927</v>
+      </c>
+      <c r="E723" s="4">
+        <v>1163285.45</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="4">
+        <v>4100</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C724" s="4">
+        <v>6.9970928132534027E-2</v>
+      </c>
+      <c r="D724" s="4">
+        <v>0.49883177876472468</v>
+      </c>
+      <c r="E724" s="4">
+        <v>1316348.7192500001</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="4">
+        <v>36580</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C725" s="4">
+        <v>3.4987363964319229E-2</v>
+      </c>
+      <c r="D725" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E725" s="4">
+        <v>935829.79</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="4">
+        <v>16800</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="C726" s="4">
+        <v>3.8549367338418961E-2</v>
+      </c>
+      <c r="D726" s="4">
+        <v>0.47079437971115112</v>
+      </c>
+      <c r="E726" s="4">
+        <v>976035.55500000005</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="4">
+        <v>1020</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="C727" s="4">
+        <v>7.1081188507378101E-3</v>
+      </c>
+      <c r="D727" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E727" s="4">
+        <v>973941.9543499999</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="4">
+        <v>33180</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C728" s="4">
+        <v>4.7994706779718399E-2</v>
+      </c>
+      <c r="D728" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E728" s="4">
+        <v>700662.72200000007</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="4">
+        <v>140</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C729" s="4">
+        <v>3.3026293385773902E-3</v>
+      </c>
+      <c r="D729" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E729" s="4">
+        <v>1016875.9575</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="4">
+        <v>10040</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C730" s="4">
+        <v>1.9900551065802571E-2</v>
+      </c>
+      <c r="D730" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E730" s="4">
+        <v>1009353.26275</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="4">
+        <v>25540</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C731" s="4">
+        <v>2.651954255998135E-2</v>
+      </c>
+      <c r="D731" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E731" s="4">
+        <v>933964.4850000001</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="4">
+        <v>14790</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="C732" s="4">
+        <v>7.3671536520123482E-3</v>
+      </c>
+      <c r="D732" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E732" s="4">
+        <v>1031925.41</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="4">
+        <v>25750</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="C733" s="4">
+        <v>4.2027171701192863E-2</v>
+      </c>
+      <c r="D733" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E733" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="4">
+        <v>14130</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="C734" s="4">
+        <v>5.4652675986289978E-2</v>
+      </c>
+      <c r="D734" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E734" s="4">
+        <v>1079207.44</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="4">
+        <v>3480</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C735" s="4">
+        <v>4.4021159410476676E-3</v>
+      </c>
+      <c r="D735" s="4">
+        <v>0.53271025419235229</v>
+      </c>
+      <c r="E735" s="4">
+        <v>1110348.2694999999</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="4">
+        <v>27390</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="C736" s="4">
+        <v>3.9329309016466141E-2</v>
+      </c>
+      <c r="D736" s="4">
+        <v>0.49766355752944952</v>
+      </c>
+      <c r="E736" s="4">
+        <v>856491.44499999983</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="4">
+        <v>9540</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="C737" s="4">
+        <v>2.1550143137574199E-2</v>
+      </c>
+      <c r="D737" s="4">
+        <v>0.53154206275939941</v>
+      </c>
+      <c r="E737" s="4">
+        <v>1007930.625</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="4">
+        <v>60310</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C738" s="4">
+        <v>1.189895253628492E-2</v>
+      </c>
+      <c r="D738" s="4">
+        <v>0.45093458890914923</v>
+      </c>
+      <c r="E738" s="4">
+        <v>1001171.80625</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" s="4">
+        <v>23460</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C739" s="4">
+        <v>2.9747754335403439E-2</v>
+      </c>
+      <c r="D739" s="4">
+        <v>0.53387850522994995</v>
+      </c>
+      <c r="E739" s="4">
+        <v>1090355.0395</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="4">
+        <v>48770</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C740" s="4">
+        <v>3.5434901714324951E-2</v>
+      </c>
+      <c r="D740" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E740" s="4">
+        <v>906777.41</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" s="4">
+        <v>51390</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="C741" s="4">
+        <v>1.3357537798583509E-2</v>
+      </c>
+      <c r="D741" s="4">
+        <v>0.5105140209197998</v>
+      </c>
+      <c r="E741" s="4">
+        <v>1026268.24125</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="4">
+        <v>35460</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="C742" s="4">
+        <v>1.6466898843646049E-2</v>
+      </c>
+      <c r="D742" s="4">
+        <v>0.47546729445457458</v>
+      </c>
+      <c r="E742" s="4">
+        <v>920392.70799999998</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" s="4">
+        <v>7390</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C743" s="4">
+        <v>5.2971094846725457E-2</v>
+      </c>
+      <c r="D743" s="4">
+        <v>0.46728971600532532</v>
+      </c>
+      <c r="E743" s="4">
+        <v>1097868.52</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="4">
+        <v>32190</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="C744" s="4">
+        <v>3.6886435002088547E-2</v>
+      </c>
+      <c r="D744" s="4">
+        <v>0.49649533629417419</v>
+      </c>
+      <c r="E744" s="4">
+        <v>940431.01</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" s="4">
+        <v>20400</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="C745" s="4">
+        <v>1.5689423307776451E-2</v>
+      </c>
+      <c r="D745" s="4">
+        <v>0.47663551568984991</v>
+      </c>
+      <c r="E745" s="4">
+        <v>895257.67749999987</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="4">
+        <v>8830</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="C746" s="4">
+        <v>2.3289008066058159E-2</v>
+      </c>
+      <c r="D746" s="4">
+        <v>0.4824766218662262</v>
+      </c>
+      <c r="E746" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
+      <c r="A747" s="4">
+        <v>6580</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="C747" s="4">
+        <v>3.2325584441423423E-2</v>
+      </c>
+      <c r="D747" s="4">
+        <v>0.54672896862030029</v>
+      </c>
+      <c r="E747" s="4">
+        <v>1013085.4575</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" s="4">
+        <v>10170</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="C748" s="4">
+        <v>4.9257241189479828E-3</v>
+      </c>
+      <c r="D748" s="4">
+        <v>0.52803736925125122</v>
+      </c>
+      <c r="E748" s="4">
+        <v>1097498.6867500001</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" s="4">
+        <v>35290</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C749" s="4">
+        <v>4.3291348963975913E-2</v>
+      </c>
+      <c r="D749" s="4">
+        <v>0.53621494770050049</v>
+      </c>
+      <c r="E749" s="4">
+        <v>979519.46075000009</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" s="4">
+        <v>33500</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="C750" s="4">
+        <v>2.057569473981857E-2</v>
+      </c>
+      <c r="D750" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E750" s="4">
+        <v>825128.54050000012</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="4">
+        <v>41930</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C751" s="4">
+        <v>2.2843502461910251E-2</v>
+      </c>
+      <c r="D751" s="4">
+        <v>0.46261683106422419</v>
+      </c>
+      <c r="E751" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" s="4">
+        <v>60380</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="C752" s="4">
+        <v>2.2711284458637241E-2</v>
+      </c>
+      <c r="D752" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E752" s="4">
+        <v>1024476.58375</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="4">
+        <v>73190</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C753" s="4">
+        <v>2.9179222881793979E-2</v>
+      </c>
+      <c r="D753" s="4">
+        <v>0.51752334833145142</v>
+      </c>
+      <c r="E753" s="4">
+        <v>887332.0085</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="4">
+        <v>39840</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="C754" s="4">
+        <v>3.2426171004772193E-2</v>
+      </c>
+      <c r="D754" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E754" s="4">
+        <v>946690.66</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="4">
+        <v>69540</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="C755" s="4">
+        <v>3.4289173781871803E-2</v>
+      </c>
+      <c r="D755" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E755" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="4">
+        <v>60300</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="C756" s="4">
+        <v>3.2445207238197327E-2</v>
+      </c>
+      <c r="D756" s="4">
+        <v>0.46378505229949951</v>
+      </c>
+      <c r="E756" s="4">
+        <v>1126031.2239999999</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="4">
+        <v>65940</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="C757" s="4">
+        <v>3.2033123075962067E-2</v>
+      </c>
+      <c r="D757" s="4">
+        <v>0.45677569508552551</v>
+      </c>
+      <c r="E757" s="4">
+        <v>987199.97499999986</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="4">
+        <v>14470</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="C758" s="4">
+        <v>2.7840211987495419E-2</v>
+      </c>
+      <c r="D758" s="4">
+        <v>0.52336448431015015</v>
+      </c>
+      <c r="E758" s="4">
+        <v>994702.96799999999</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="4">
+        <v>54220</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="C759" s="4">
+        <v>1.7551980912685391E-2</v>
+      </c>
+      <c r="D759" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E759" s="4">
+        <v>953266.61750000005</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="4">
+        <v>65570</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="C760" s="4">
+        <v>3.565799817442894E-2</v>
+      </c>
+      <c r="D760" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E760" s="4">
+        <v>956130.29499999981</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="4">
+        <v>37460</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="C761" s="4">
+        <v>4.3948095291852951E-2</v>
+      </c>
+      <c r="D761" s="4">
+        <v>0.52219623327255249</v>
+      </c>
+      <c r="E761" s="4">
+        <v>905300.22849999997</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="4">
+        <v>17510</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="C762" s="4">
+        <v>2.3265928030014042E-2</v>
+      </c>
+      <c r="D762" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E762" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="4">
+        <v>35610</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="C763" s="4">
+        <v>3.7273839116096497E-2</v>
+      </c>
+      <c r="D763" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E763" s="4">
+        <v>956497.75999999989</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="4">
+        <v>36830</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="C764" s="4">
+        <v>2.821199968457222E-2</v>
+      </c>
+      <c r="D764" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E764" s="4">
+        <v>1169836</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="4">
+        <v>49830</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="C765" s="4">
+        <v>5.0618372857570648E-2</v>
+      </c>
+      <c r="D765" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E765" s="4">
+        <v>948152.38250000007</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="4">
+        <v>41440</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="C766" s="4">
+        <v>4.3191969394683838E-2</v>
+      </c>
+      <c r="D766" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E766" s="4">
+        <v>1024588.4425</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="4">
+        <v>38680</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="C767" s="4">
+        <v>4.8103712499141693E-2</v>
+      </c>
+      <c r="D767" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E767" s="4">
+        <v>935079.18650000007</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="4">
+        <v>14940</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="C768" s="4">
+        <v>1.452541444450617E-2</v>
+      </c>
+      <c r="D768" s="4">
+        <v>0.51752334833145142</v>
+      </c>
+      <c r="E768" s="4">
+        <v>923804.62600000005</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="4">
+        <v>31510</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="C769" s="4">
+        <v>3.3572163432836533E-2</v>
+      </c>
+      <c r="D769" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E769" s="4">
+        <v>973579.3125</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="4">
+        <v>32820</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="C770" s="4">
+        <v>1.6165457665920261E-2</v>
+      </c>
+      <c r="D770" s="4">
+        <v>0.5572429895401001</v>
+      </c>
+      <c r="E770" s="4">
+        <v>873153.29120000021</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="4">
+        <v>72470</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="C771" s="4">
+        <v>4.6456813812255859E-2</v>
+      </c>
+      <c r="D771" s="4">
+        <v>0.49766355752944952</v>
+      </c>
+      <c r="E771" s="4">
+        <v>995885.9915</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="4">
+        <v>74600</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="C772" s="4">
+        <v>4.2863558977842331E-2</v>
+      </c>
+      <c r="D772" s="4">
+        <v>0.47313085198402399</v>
+      </c>
+      <c r="E772" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="4">
+        <v>8290</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="C773" s="4">
+        <v>3.2257441431283951E-2</v>
+      </c>
+      <c r="D773" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E773" s="4">
+        <v>933272.70299999998</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="4">
+        <v>26260</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="C774" s="4">
+        <v>4.6614415943622589E-2</v>
+      </c>
+      <c r="D774" s="4">
+        <v>0.47546729445457458</v>
+      </c>
+      <c r="E774" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="4">
+        <v>41520</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="C775" s="4">
+        <v>3.1494874507188797E-2</v>
+      </c>
+      <c r="D775" s="4">
+        <v>0.45677569508552551</v>
+      </c>
+      <c r="E775" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="4">
+        <v>19570</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="C776" s="4">
+        <v>4.6047419309616089E-2</v>
+      </c>
+      <c r="D776" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E776" s="4">
+        <v>953079.01330000011</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="4">
+        <v>52670</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="C777" s="4">
+        <v>4.4958196580409997E-2</v>
+      </c>
+      <c r="D777" s="4">
+        <v>0.46378505229949951</v>
+      </c>
+      <c r="E777" s="4">
+        <v>950117.60950000002</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="4">
+        <v>54180</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="C778" s="4">
+        <v>9.3378722667694092E-3</v>
+      </c>
+      <c r="D778" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E778" s="4">
+        <v>1896871.9735000001</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="4">
+        <v>18120</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="C779" s="4">
+        <v>3.005979023873806E-2</v>
+      </c>
+      <c r="D779" s="4">
+        <v>0.50994575023651123</v>
+      </c>
+      <c r="E779" s="4">
+        <v>1025656.6850000001</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="4">
+        <v>16920</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="C780" s="4">
+        <v>4.7060009092092507E-2</v>
+      </c>
+      <c r="D780" s="4">
+        <v>0.53154206275939941</v>
+      </c>
+      <c r="E780" s="4">
+        <v>1067651.5179999999</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="4">
+        <v>16170</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="C781" s="4">
+        <v>3.4501947462558753E-2</v>
+      </c>
+      <c r="D781" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E781" s="4">
+        <v>984909.81500000006</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="4">
+        <v>39420</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="C782" s="4">
+        <v>1.1185812763869761E-2</v>
+      </c>
+      <c r="D782" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E782" s="4">
+        <v>927846.08</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="4">
+        <v>52400</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="C783" s="4">
+        <v>3.856436163187027E-2</v>
+      </c>
+      <c r="D783" s="4">
+        <v>0.48130840063095093</v>
+      </c>
+      <c r="E783" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="4">
+        <v>56360</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="C784" s="4">
+        <v>2.690123021602631E-2</v>
+      </c>
+      <c r="D784" s="4">
+        <v>0.50467288494110107</v>
+      </c>
+      <c r="E784" s="4">
+        <v>1000498.22</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="4">
+        <v>51780</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="C785" s="4">
+        <v>4.1353609412908547E-2</v>
+      </c>
+      <c r="D785" s="4">
+        <v>0.48364487290382391</v>
+      </c>
+      <c r="E785" s="4">
+        <v>968807.73749999993</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="4">
+        <v>37070</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="C786" s="4">
+        <v>4.3535195291042328E-2</v>
+      </c>
+      <c r="D786" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E786" s="4">
+        <v>1106127.175</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="4">
+        <v>5670</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="C787" s="4">
+        <v>1.196232624351978E-2</v>
+      </c>
+      <c r="D787" s="4">
+        <v>0.51285046339035034</v>
+      </c>
+      <c r="E787" s="4">
+        <v>913432.32149999996</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="4">
+        <v>23770</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="C788" s="4">
+        <v>5.0284508615732193E-2</v>
+      </c>
+      <c r="D788" s="4">
+        <v>0.50271248817443848</v>
+      </c>
+      <c r="E788" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="4">
+        <v>39340</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="C789" s="4">
+        <v>1.036048773676157E-2</v>
+      </c>
+      <c r="D789" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E789" s="4">
+        <v>993532.92174999986</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" s="4">
+        <v>25550</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="C790" s="4">
+        <v>2.1041825413703918E-2</v>
+      </c>
+      <c r="D790" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E790" s="4">
+        <v>990413.272</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="4">
+        <v>17890</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="C791" s="4">
+        <v>7.9026408493518829E-3</v>
+      </c>
+      <c r="D791" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E791" s="4">
+        <v>953858.57649999997</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" s="4">
+        <v>54040</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="C792" s="4">
+        <v>3.0126426368951801E-2</v>
+      </c>
+      <c r="D792" s="4">
+        <v>0.53387850522994995</v>
+      </c>
+      <c r="E792" s="4">
+        <v>1036952.1665000001</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="4">
+        <v>52600</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="C793" s="4">
+        <v>5.7264383882284157E-2</v>
+      </c>
+      <c r="D793" s="4">
+        <v>0.48014017939567571</v>
+      </c>
+      <c r="E793" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="4">
+        <v>2680</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="C794" s="4">
+        <v>1.8699126318097111E-2</v>
+      </c>
+      <c r="D794" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E794" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="4">
+        <v>78930</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="C795" s="4">
+        <v>1.8242014572024349E-2</v>
+      </c>
+      <c r="D795" s="4">
+        <v>0.50817757844924927</v>
+      </c>
+      <c r="E795" s="4">
+        <v>1139821.52</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="A796" s="4">
+        <v>8260</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="C796" s="4">
+        <v>3.137534111738205E-2</v>
+      </c>
+      <c r="D796" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E796" s="4">
+        <v>904547.22500000009</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="4">
+        <v>10060</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C797" s="4">
+        <v>9.5303654670715332E-3</v>
+      </c>
+      <c r="D797" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E797" s="4">
+        <v>1065162.94</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="4">
+        <v>11790</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C798" s="4">
+        <v>1.9064383581280708E-2</v>
+      </c>
+      <c r="D798" s="4">
+        <v>0.48130840063095093</v>
+      </c>
+      <c r="E798" s="4">
+        <v>1170726.75</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" s="4">
+        <v>11810</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="C799" s="4">
+        <v>1.9703999161720279E-2</v>
+      </c>
+      <c r="D799" s="4">
+        <v>0.51985979080200195</v>
+      </c>
+      <c r="E799" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="4">
+        <v>35250</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="C800" s="4">
+        <v>2.948387898504734E-2</v>
+      </c>
+      <c r="D800" s="4">
+        <v>0.46495327353477478</v>
+      </c>
+      <c r="E800" s="4">
+        <v>967673.09499999997</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="4">
+        <v>12610</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="C801" s="4">
+        <v>1.010623853653669E-2</v>
+      </c>
+      <c r="D801" s="4">
+        <v>0.46495327353477478</v>
+      </c>
+      <c r="E801" s="4">
+        <v>982285.65775000001</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="4">
+        <v>4200</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="C802" s="4">
+        <v>3.5135120153427117E-2</v>
+      </c>
+      <c r="D802" s="4">
+        <v>0.52336448431015015</v>
+      </c>
+      <c r="E802" s="4">
+        <v>1151319.5534999999</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="4">
+        <v>37710</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="C803" s="4">
+        <v>2.353522926568985E-2</v>
+      </c>
+      <c r="D803" s="4">
+        <v>0.52102804183959961</v>
+      </c>
+      <c r="E803" s="4">
+        <v>972037.3</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="A804" s="4">
+        <v>2720</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="C804" s="4">
+        <v>2.0111348479986191E-2</v>
+      </c>
+      <c r="D804" s="4">
+        <v>0.46728971600532532</v>
+      </c>
+      <c r="E804" s="4">
+        <v>920992.41524999996</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" s="4">
+        <v>4270</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="C805" s="4">
+        <v>6.9123037159442902E-2</v>
+      </c>
+      <c r="D805" s="4">
+        <v>0.52336448431015015</v>
+      </c>
+      <c r="E805" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="A806" s="4">
+        <v>2350</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="C806" s="4">
+        <v>9.3607204034924507E-3</v>
+      </c>
+      <c r="D806" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E806" s="4">
+        <v>950720.02249999996</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="4">
+        <v>8060</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="C807" s="4">
+        <v>2.1385295316576961E-2</v>
+      </c>
+      <c r="D807" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E807" s="4">
+        <v>1163606.2625</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="4">
+        <v>8110</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C808" s="4">
+        <v>3.1618159264326103E-2</v>
+      </c>
+      <c r="D808" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E808" s="4">
+        <v>1011121.385</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="4">
+        <v>9320</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="C809" s="4">
+        <v>8.5470691556110978E-4</v>
+      </c>
+      <c r="D809" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E809" s="4">
+        <v>1026144.892</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="4">
+        <v>69620</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="C810" s="4">
+        <v>3.1849291175603867E-2</v>
+      </c>
+      <c r="D810" s="4">
+        <v>0.4497663676738739</v>
+      </c>
+      <c r="E810" s="4">
+        <v>888981.10499999986</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="4">
+        <v>6340</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C811" s="4">
+        <v>5.0507127307355404E-3</v>
+      </c>
+      <c r="D811" s="4">
+        <v>0.48130840063095093</v>
+      </c>
+      <c r="E811" s="4">
+        <v>1084362.0830000001</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="4">
+        <v>6650</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C812" s="4">
+        <v>3.9242338389158249E-2</v>
+      </c>
+      <c r="D812" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E812" s="4">
+        <v>1044739.3</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="4">
+        <v>1230</v>
+      </c>
+      <c r="B813" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="C813" s="4">
+        <v>7.2976909577846527E-2</v>
+      </c>
+      <c r="D813" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E813" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="4">
+        <v>7590</v>
+      </c>
+      <c r="B814" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="C814" s="4">
+        <v>3.7917118519544601E-2</v>
+      </c>
+      <c r="D814" s="4">
+        <v>0.5105140209197998</v>
+      </c>
+      <c r="E814" s="4">
+        <v>976886.31099999999</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="4">
+        <v>30720</v>
+      </c>
+      <c r="B815" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="C815" s="4">
+        <v>2.5730473920702931E-2</v>
+      </c>
+      <c r="D815" s="4">
+        <v>0.49883177876472468</v>
+      </c>
+      <c r="E815" s="4">
+        <v>1121253.3999999999</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="4">
+        <v>14820</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C816" s="4">
+        <v>2.595500648021698E-2</v>
+      </c>
+      <c r="D816" s="4">
+        <v>0.51518690586090088</v>
+      </c>
+      <c r="E816" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="4">
+        <v>20</v>
+      </c>
+      <c r="B817" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="C817" s="4">
+        <v>4.0048519149422654E-3</v>
+      </c>
+      <c r="D817" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E817" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="4">
+        <v>1080</v>
+      </c>
+      <c r="B818" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="C818" s="4">
+        <v>6.335732527077198E-3</v>
+      </c>
+      <c r="D818" s="4">
+        <v>0.49649533629417419</v>
+      </c>
+      <c r="E818" s="4">
+        <v>984791.25000000012</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="4">
+        <v>7210</v>
+      </c>
+      <c r="B819" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="C819" s="4">
+        <v>2.2693676874041561E-2</v>
+      </c>
+      <c r="D819" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E819" s="4">
+        <v>917377.80700000003</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="4">
+        <v>6090</v>
+      </c>
+      <c r="B820" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="C820" s="4">
+        <v>1.6172206029295921E-2</v>
+      </c>
+      <c r="D820" s="4">
+        <v>0.46028038859367371</v>
+      </c>
+      <c r="E820" s="4">
+        <v>1227544.72</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" s="4">
+        <v>5090</v>
+      </c>
+      <c r="B821" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="C821" s="4">
+        <v>3.1633768230676651E-2</v>
+      </c>
+      <c r="D821" s="4">
+        <v>0.52803736925125122</v>
+      </c>
+      <c r="E821" s="4">
+        <v>935923.04999999981</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="4">
+        <v>6400</v>
+      </c>
+      <c r="B822" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="C822" s="4">
+        <v>3.5304572433233261E-2</v>
+      </c>
+      <c r="D822" s="4">
+        <v>0.50467288494110107</v>
+      </c>
+      <c r="E822" s="4">
+        <v>1138393</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="4">
+        <v>5680</v>
+      </c>
+      <c r="B823" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="C823" s="4">
+        <v>3.6127436906099319E-2</v>
+      </c>
+      <c r="D823" s="4">
+        <v>0.53621494770050049</v>
+      </c>
+      <c r="E823" s="4">
+        <v>1036348.33</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="4">
+        <v>3720</v>
+      </c>
+      <c r="B824" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="C824" s="4">
+        <v>1.157581713050604E-2</v>
+      </c>
+      <c r="D824" s="4">
+        <v>0.51285046339035034</v>
+      </c>
+      <c r="E824" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="4">
+        <v>5500</v>
+      </c>
+      <c r="B825" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C825" s="4">
+        <v>1.0737594217062E-2</v>
+      </c>
+      <c r="D825" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E825" s="4">
+        <v>912457.10999999964</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="4">
+        <v>9470</v>
+      </c>
+      <c r="B826" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="C826" s="4">
+        <v>2.6556489989161491E-2</v>
+      </c>
+      <c r="D826" s="4">
+        <v>0.50116825103759766</v>
+      </c>
+      <c r="E826" s="4">
+        <v>1204812.8500000001</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="4">
+        <v>7860</v>
+      </c>
+      <c r="B827" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="C827" s="4">
+        <v>4.3278936296701431E-2</v>
+      </c>
+      <c r="D827" s="4">
+        <v>0.55140185356140137</v>
+      </c>
+      <c r="E827" s="4">
+        <v>980847.8125</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="4">
+        <v>7610</v>
+      </c>
+      <c r="B828" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="C828" s="4">
+        <v>3.3900167793035507E-2</v>
+      </c>
+      <c r="D828" s="4">
+        <v>0.5105140209197998</v>
+      </c>
+      <c r="E828" s="4">
+        <v>954824.65974999999</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" s="4">
+        <v>11300</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="C829" s="4">
+        <v>1.064958423376083E-2</v>
+      </c>
+      <c r="D829" s="4">
+        <v>0.53504675626754761</v>
+      </c>
+      <c r="E829" s="4">
+        <v>822816.14360000007</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" s="4">
+        <v>4490</v>
+      </c>
+      <c r="B830" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C830" s="4">
+        <v>2.1237241104245189E-2</v>
+      </c>
+      <c r="D830" s="4">
+        <v>0.4824766218662262</v>
+      </c>
+      <c r="E830" s="4">
+        <v>998595.28499999992</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" s="4">
+        <v>5390</v>
+      </c>
+      <c r="B831" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="C831" s="4">
+        <v>1.411478221416473E-2</v>
+      </c>
+      <c r="D831" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E831" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5">
+      <c r="A832" s="4">
+        <v>19170</v>
+      </c>
+      <c r="B832" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C832" s="4">
+        <v>1.132707577198744E-2</v>
+      </c>
+      <c r="D832" s="4">
+        <v>0.49766355752944952</v>
+      </c>
+      <c r="E832" s="4">
+        <v>899400.85849999997</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="4">
+        <v>3410</v>
+      </c>
+      <c r="B833" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="C833" s="4">
+        <v>2.985698543488979E-2</v>
+      </c>
+      <c r="D833" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E833" s="4">
+        <v>998525.71249999991</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="A834" s="4">
+        <v>4920</v>
+      </c>
+      <c r="B834" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C834" s="4">
+        <v>3.1143170781433578E-3</v>
+      </c>
+      <c r="D834" s="4">
+        <v>0.47897195816040039</v>
+      </c>
+      <c r="E834" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="A835" s="4">
+        <v>9810</v>
+      </c>
+      <c r="B835" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="C835" s="4">
+        <v>4.17209193110466E-2</v>
+      </c>
+      <c r="D835" s="4">
+        <v>0.5105140209197998</v>
+      </c>
+      <c r="E835" s="4">
+        <v>915426.66190000006</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" s="4">
+        <v>1800</v>
+      </c>
+      <c r="B836" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="C836" s="4">
+        <v>3.1173629686236382E-2</v>
+      </c>
+      <c r="D836" s="4">
+        <v>0.48130840063095093</v>
+      </c>
+      <c r="E836" s="4">
+        <v>1058213.6000000001</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="A837" s="4">
+        <v>10050</v>
+      </c>
+      <c r="B837" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="C837" s="4">
+        <v>2.3168230429291729E-2</v>
+      </c>
+      <c r="D837" s="4">
+        <v>0.47897195816040039</v>
+      </c>
+      <c r="E837" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="A838" s="4">
+        <v>5820</v>
+      </c>
+      <c r="B838" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C838" s="4">
+        <v>3.310379758477211E-2</v>
+      </c>
+      <c r="D838" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E838" s="4">
+        <v>1023293.535</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="4">
+        <v>77500</v>
+      </c>
+      <c r="B839" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C839" s="4">
+        <v>4.3425250798463821E-2</v>
+      </c>
+      <c r="D839" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E839" s="4">
+        <v>975485.16250000009</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" s="4">
+        <v>23810</v>
+      </c>
+      <c r="B840" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="C840" s="4">
+        <v>3.9384741336107247E-2</v>
+      </c>
+      <c r="D840" s="4">
+        <v>0.52920562028884888</v>
+      </c>
+      <c r="E840" s="4">
+        <v>1055816.0889999999</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="A841" s="4">
+        <v>13360</v>
+      </c>
+      <c r="B841" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="C841" s="4">
+        <v>3.2731741666793823E-2</v>
+      </c>
+      <c r="D841" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E841" s="4">
+        <v>931287.40000000014</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="4">
+        <v>3120</v>
+      </c>
+      <c r="B842" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="C842" s="4">
+        <v>3.1570464372634888E-2</v>
+      </c>
+      <c r="D842" s="4">
+        <v>0.54789721965789795</v>
+      </c>
+      <c r="E842" s="4">
+        <v>1018135.6</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="A843" s="4">
+        <v>2620</v>
+      </c>
+      <c r="B843" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="C843" s="4">
+        <v>3.424801304936409E-2</v>
+      </c>
+      <c r="D843" s="4">
+        <v>0.58294391632080078</v>
+      </c>
+      <c r="E843" s="4">
+        <v>982661.83</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="A844" s="4">
+        <v>1630</v>
+      </c>
+      <c r="B844" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="C844" s="4">
+        <v>3.7848800420761108E-2</v>
+      </c>
+      <c r="D844" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E844" s="4">
+        <v>989493.36999999988</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="4">
+        <v>10640</v>
+      </c>
+      <c r="B845" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C845" s="4">
+        <v>2.2258752956986431E-2</v>
+      </c>
+      <c r="D845" s="4">
+        <v>0.71962618827819824</v>
+      </c>
+      <c r="E845" s="4">
+        <v>905513.53375000006</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" s="4">
+        <v>30200</v>
+      </c>
+      <c r="B846" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="C846" s="4">
+        <v>2.637235447764397E-2</v>
+      </c>
+      <c r="D846" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E846" s="4">
+        <v>1001315.7975</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5">
+      <c r="A847" s="4">
+        <v>3690</v>
+      </c>
+      <c r="B847" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="C847" s="4">
+        <v>2.903368882834911E-2</v>
+      </c>
+      <c r="D847" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E847" s="4">
+        <v>972222.45250000013</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" s="4">
+        <v>3070</v>
+      </c>
+      <c r="B848" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="C848" s="4">
+        <v>4.874124750494957E-2</v>
+      </c>
+      <c r="D848" s="4">
+        <v>0.54906541109085083</v>
+      </c>
+      <c r="E848" s="4">
+        <v>879795.35499999998</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="A849" s="4">
+        <v>71090</v>
+      </c>
+      <c r="B849" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C849" s="4">
+        <v>2.1776163950562481E-2</v>
+      </c>
+      <c r="D849" s="4">
+        <v>0.50817757844924927</v>
+      </c>
+      <c r="E849" s="4">
+        <v>970128.79500000004</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5">
+      <c r="A850" s="4">
+        <v>36460</v>
+      </c>
+      <c r="B850" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="C850" s="4">
+        <v>3.9304494857788093E-2</v>
+      </c>
+      <c r="D850" s="4">
+        <v>0.48014017939567571</v>
+      </c>
+      <c r="E850" s="4">
+        <v>1127126.7250000001</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" s="4">
+        <v>3350</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="C851" s="4">
+        <v>5.9110932052135468E-2</v>
+      </c>
+      <c r="D851" s="4">
+        <v>0.5105140209197998</v>
+      </c>
+      <c r="E851" s="4">
+        <v>944131.83000000007</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5">
+      <c r="A852" s="4">
+        <v>2390</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="C852" s="4">
+        <v>4.8161499202251427E-2</v>
+      </c>
+      <c r="D852" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E852" s="4">
+        <v>1032504.3</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5">
+      <c r="A853" s="4">
+        <v>3680</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="C853" s="4">
+        <v>2.9911389574408531E-2</v>
+      </c>
+      <c r="D853" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E853" s="4">
+        <v>955569.11349999998</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="4">
+        <v>10420</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="C854" s="4">
+        <v>3.474447643384337E-3</v>
+      </c>
+      <c r="D854" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E854" s="4">
+        <v>982164.152</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" s="4">
+        <v>11700</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="C855" s="4">
+        <v>6.6787763498723507E-3</v>
+      </c>
+      <c r="D855" s="4">
+        <v>0.49065420031547552</v>
+      </c>
+      <c r="E855" s="4">
+        <v>1332974.0037499999</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" s="4">
+        <v>9420</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="C856" s="4">
+        <v>3.2500740140676498E-2</v>
+      </c>
+      <c r="D856" s="4">
+        <v>0.50817757844924927</v>
+      </c>
+      <c r="E856" s="4">
+        <v>892010.32499999984</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" s="4">
+        <v>9830</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="C857" s="4">
+        <v>1.9709739834070209E-2</v>
+      </c>
+      <c r="D857" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E857" s="4">
+        <v>1219826.23</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" s="4">
+        <v>11200</v>
+      </c>
+      <c r="B858" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C858" s="4">
+        <v>2.219424024224281E-2</v>
+      </c>
+      <c r="D858" s="4">
+        <v>0.53271025419235229</v>
+      </c>
+      <c r="E858" s="4">
+        <v>1029351.944</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" s="4">
+        <v>850</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="C859" s="4">
+        <v>2.4369426071643829E-2</v>
+      </c>
+      <c r="D859" s="4">
+        <v>0.48364487290382391</v>
+      </c>
+      <c r="E859" s="4">
+        <v>1081844.3999999999</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860" s="4">
+        <v>32040</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C860" s="4">
+        <v>5.2612379193305969E-2</v>
+      </c>
+      <c r="D860" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E860" s="4">
+        <v>971778.96299999987</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861" s="4">
+        <v>65770</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="C861" s="4">
+        <v>1.4432030729949471E-2</v>
+      </c>
+      <c r="D861" s="4">
+        <v>0.51168227195739746</v>
+      </c>
+      <c r="E861" s="4">
+        <v>956616.33599999989</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862" s="4">
+        <v>28150</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C862" s="4">
+        <v>2.8129845857620239E-2</v>
+      </c>
+      <c r="D862" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E862" s="4">
+        <v>989621.88</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863" s="4">
+        <v>36030</v>
+      </c>
+      <c r="B863" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="C863" s="4">
+        <v>4.2303957045078278E-2</v>
+      </c>
+      <c r="D863" s="4">
+        <v>0.46612149477004999</v>
+      </c>
+      <c r="E863" s="4">
+        <v>965065.37300000002</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864" s="4">
+        <v>60250</v>
+      </c>
+      <c r="B864" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="C864" s="4">
+        <v>4.137251153588295E-2</v>
+      </c>
+      <c r="D864" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E864" s="4">
+        <v>991218.89749999996</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865" s="4">
+        <v>63440</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="C865" s="4">
+        <v>2.0513787865638729E-2</v>
+      </c>
+      <c r="D865" s="4">
+        <v>0.53037381172180176</v>
+      </c>
+      <c r="E865" s="4">
+        <v>1169222.841</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866" s="4">
+        <v>24840</v>
+      </c>
+      <c r="B866" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="C866" s="4">
+        <v>6.6601462662220001E-2</v>
+      </c>
+      <c r="D866" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E866" s="4">
+        <v>1124131.0262500001</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867" s="4">
+        <v>24910</v>
+      </c>
+      <c r="B867" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="C867" s="4">
+        <v>2.606138959527016E-2</v>
+      </c>
+      <c r="D867" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E867" s="4">
+        <v>976564.07900000014</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5">
+      <c r="A868" s="4">
+        <v>19660</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="C868" s="4">
+        <v>3.3236958086490631E-2</v>
+      </c>
+      <c r="D868" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E868" s="4">
+        <v>837427.51950000005</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5">
+      <c r="A869" s="4">
+        <v>36190</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>872</v>
+      </c>
+      <c r="C869" s="4">
+        <v>3.530358150601387E-2</v>
+      </c>
+      <c r="D869" s="4">
+        <v>0.55257010459899902</v>
+      </c>
+      <c r="E869" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5">
+      <c r="A870" s="4">
+        <v>36800</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="C870" s="4">
+        <v>2.3952510207891461E-2</v>
+      </c>
+      <c r="D870" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E870" s="4">
+        <v>963449.67499999993</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5">
+      <c r="A871" s="4">
+        <v>45390</v>
+      </c>
+      <c r="B871" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="C871" s="4">
+        <v>1.9098555669188499E-2</v>
+      </c>
+      <c r="D871" s="4">
+        <v>0.46261683106422419</v>
+      </c>
+      <c r="E871" s="4">
+        <v>981957.84074999997</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5">
+      <c r="A872" s="4">
+        <v>48910</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C872" s="4">
+        <v>2.7109486982226368E-2</v>
+      </c>
+      <c r="D872" s="4">
+        <v>0.49065420031547552</v>
+      </c>
+      <c r="E872" s="4">
+        <v>875599.40799999994</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5">
+      <c r="A873" s="4">
+        <v>54670</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C873" s="4">
+        <v>4.7379560768604279E-2</v>
+      </c>
+      <c r="D873" s="4">
+        <v>0.46378505229949951</v>
+      </c>
+      <c r="E873" s="4">
+        <v>953339.67999999993</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5">
+      <c r="A874" s="4">
+        <v>67990</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C874" s="4">
+        <v>3.1649474054574973E-2</v>
+      </c>
+      <c r="D874" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E874" s="4">
+        <v>1137525.436</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5">
+      <c r="A875" s="4">
+        <v>25900</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="C875" s="4">
+        <v>5.5162567645311363E-2</v>
+      </c>
+      <c r="D875" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E875" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5">
+      <c r="A876" s="4">
+        <v>66670</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C876" s="4">
+        <v>3.4442424774169922E-2</v>
+      </c>
+      <c r="D876" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E876" s="4">
+        <v>1135667.202</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5">
+      <c r="A877" s="4">
+        <v>42510</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C877" s="4">
+        <v>3.6605078727006912E-2</v>
+      </c>
+      <c r="D877" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E877" s="4">
+        <v>991596.27999999991</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5">
+      <c r="A878" s="4">
+        <v>39980</v>
+      </c>
+      <c r="B878" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="C878" s="4">
+        <v>1.5727505087852481E-2</v>
+      </c>
+      <c r="D878" s="4">
+        <v>0.44859811663627619</v>
+      </c>
+      <c r="E878" s="4">
+        <v>891837.54550000001</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5">
+      <c r="A879" s="4">
+        <v>38290</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="C879" s="4">
+        <v>4.2483571916818619E-2</v>
+      </c>
+      <c r="D879" s="4">
+        <v>0.46495327353477478</v>
+      </c>
+      <c r="E879" s="4">
+        <v>890093.62250000006</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5">
+      <c r="A880" s="4">
+        <v>65650</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C880" s="4">
+        <v>3.2769642770290368E-2</v>
+      </c>
+      <c r="D880" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E880" s="4">
+        <v>1082240.365</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5">
+      <c r="A881" s="4">
+        <v>28040</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="C881" s="4">
+        <v>4.0178973227739327E-2</v>
+      </c>
+      <c r="D881" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E881" s="4">
+        <v>929898.18775000004</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5">
+      <c r="A882" s="4">
+        <v>64520</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="C882" s="4">
+        <v>3.4537900239229202E-2</v>
+      </c>
+      <c r="D882" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E882" s="4">
+        <v>969204.27350000001</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5">
+      <c r="A883" s="4">
+        <v>38460</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C883" s="4">
+        <v>4.2283240705728531E-2</v>
+      </c>
+      <c r="D883" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E883" s="4">
+        <v>1076492.78525</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" s="4">
+        <v>14970</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="C884" s="4">
+        <v>1.1200163513422011E-2</v>
+      </c>
+      <c r="D884" s="4">
+        <v>0.46612149477004999</v>
+      </c>
+      <c r="E884" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" s="4">
+        <v>46890</v>
+      </c>
+      <c r="B885" s="4" t="s">
+        <v>888</v>
+      </c>
+      <c r="C885" s="4">
+        <v>2.0427016541361809E-2</v>
+      </c>
+      <c r="D885" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E885" s="4">
+        <v>1100773.27</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" s="4">
+        <v>20710</v>
+      </c>
+      <c r="B886" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C886" s="4">
+        <v>3.3432625234127038E-2</v>
+      </c>
+      <c r="D886" s="4">
+        <v>0.53738319873809814</v>
+      </c>
+      <c r="E886" s="4">
+        <v>983415.25200000009</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5">
+      <c r="A887" s="4">
+        <v>25870</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="C887" s="4">
+        <v>5.1098823547363281E-2</v>
+      </c>
+      <c r="D887" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E887" s="4">
+        <v>929726.4600000002</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5">
+      <c r="A888" s="4">
+        <v>12790</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="C888" s="4">
+        <v>3.9653390645980828E-2</v>
+      </c>
+      <c r="D888" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E888" s="4">
+        <v>925915.28750000009</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5">
+      <c r="A889" s="4">
+        <v>25980</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C889" s="4">
+        <v>4.8447400331497192E-2</v>
+      </c>
+      <c r="D889" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E889" s="4">
+        <v>1053943.2849999999</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5">
+      <c r="A890" s="4">
+        <v>60570</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="C890" s="4">
+        <v>3.3102288842201233E-2</v>
+      </c>
+      <c r="D890" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E890" s="4">
+        <v>875642.57799999998</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5">
+      <c r="A891" s="4">
+        <v>38880</v>
+      </c>
+      <c r="B891" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="C891" s="4">
+        <v>1.9413759931921959E-2</v>
+      </c>
+      <c r="D891" s="4">
+        <v>0.56658875942230225</v>
+      </c>
+      <c r="E891" s="4">
+        <v>923905.14599999995</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5">
+      <c r="A892" s="4">
+        <v>50760</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>895</v>
+      </c>
+      <c r="C892" s="4">
+        <v>2.0307105034589771E-2</v>
+      </c>
+      <c r="D892" s="4">
+        <v>0.51168227195739746</v>
+      </c>
+      <c r="E892" s="4">
+        <v>1023133.657</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5">
+      <c r="A893" s="4">
+        <v>54630</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C893" s="4">
+        <v>9.751584380865097E-3</v>
+      </c>
+      <c r="D893" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E893" s="4">
+        <v>880180.9430000002</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5">
+      <c r="A894" s="4">
+        <v>43220</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="C894" s="4">
+        <v>8.9687548577785492E-2</v>
+      </c>
+      <c r="D894" s="4">
+        <v>0.5677570104598999</v>
+      </c>
+      <c r="E894" s="4">
+        <v>934613.07399999991</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5">
+      <c r="A895" s="4">
+        <v>21080</v>
+      </c>
+      <c r="B895" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C895" s="4">
+        <v>4.8079729080200202E-2</v>
+      </c>
+      <c r="D895" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E895" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" s="4">
+        <v>73570</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C896" s="4">
+        <v>4.1702538728713989E-2</v>
+      </c>
+      <c r="D896" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E896" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" s="4">
+        <v>65950</v>
+      </c>
+      <c r="B897" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C897" s="4">
+        <v>2.9096117243170742E-2</v>
+      </c>
+      <c r="D897" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E897" s="4">
+        <v>970526.19449999987</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5">
+      <c r="A898" s="4">
+        <v>36200</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C898" s="4">
+        <v>4.9582585692405701E-2</v>
+      </c>
+      <c r="D898" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E898" s="4">
+        <v>1072106.0349999999</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5">
+      <c r="A899" s="4">
+        <v>49520</v>
+      </c>
+      <c r="B899" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C899" s="4">
+        <v>1.9437981769442558E-2</v>
+      </c>
+      <c r="D899" s="4">
+        <v>0.53271025419235229</v>
+      </c>
+      <c r="E899" s="4">
+        <v>1139245.1575</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5">
+      <c r="A900" s="4">
+        <v>56080</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C900" s="4">
+        <v>2.8507087379693982E-2</v>
+      </c>
+      <c r="D900" s="4">
+        <v>0.47546729445457458</v>
+      </c>
+      <c r="E900" s="4">
+        <v>975384.02350000001</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5">
+      <c r="A901" s="4">
+        <v>60230</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C901" s="4">
+        <v>2.6823356747627258E-2</v>
+      </c>
+      <c r="D901" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E901" s="4">
+        <v>876297.86475000007</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5">
+      <c r="A902" s="4">
+        <v>54210</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C902" s="4">
+        <v>4.3560151010751717E-2</v>
+      </c>
+      <c r="D902" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E902" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5">
+      <c r="A903" s="4">
+        <v>65440</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C903" s="4">
+        <v>3.846629336476326E-2</v>
+      </c>
+      <c r="D903" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E903" s="4">
+        <v>965603.95000000007</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5">
+      <c r="A904" s="4">
+        <v>24810</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C904" s="4">
+        <v>7.7415644191205502E-3</v>
+      </c>
+      <c r="D904" s="4">
+        <v>0.59345793724060059</v>
+      </c>
+      <c r="E904" s="4">
+        <v>731851.35014999984</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5">
+      <c r="A905" s="4">
+        <v>37330</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C905" s="4">
+        <v>1.9027844071388241E-2</v>
+      </c>
+      <c r="D905" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E905" s="4">
+        <v>943469.995</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5">
+      <c r="A906" s="4">
+        <v>17250</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C906" s="4">
+        <v>3.8338690996170037E-2</v>
+      </c>
+      <c r="D906" s="4">
+        <v>0.50467288494110107</v>
+      </c>
+      <c r="E906" s="4">
+        <v>1005405.072</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5">
+      <c r="A907" s="4">
+        <v>35080</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="C907" s="4">
+        <v>3.9818495512008667E-2</v>
+      </c>
+      <c r="D907" s="4">
+        <v>0.46028038859367371</v>
+      </c>
+      <c r="E907" s="4">
+        <v>1075600.7405000001</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5">
+      <c r="A908" s="4">
+        <v>49550</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C908" s="4">
+        <v>1.4356754720211031E-2</v>
+      </c>
+      <c r="D908" s="4">
+        <v>0.53345388174057007</v>
+      </c>
+      <c r="E908" s="4">
+        <v>937430.55999999994</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5">
+      <c r="A909" s="4">
+        <v>40420</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="C909" s="4">
+        <v>1.535931136459112E-2</v>
+      </c>
+      <c r="D909" s="4">
+        <v>0.54439252614974976</v>
+      </c>
+      <c r="E909" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5">
+      <c r="A910" s="4">
+        <v>33100</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="C910" s="4">
+        <v>3.696369007229805E-2</v>
+      </c>
+      <c r="D910" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E910" s="4">
+        <v>1181689.7424999999</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5">
+      <c r="A911" s="4">
+        <v>58420</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C911" s="4">
+        <v>5.3254980593919747E-2</v>
+      </c>
+      <c r="D911" s="4">
+        <v>0.55607473850250244</v>
+      </c>
+      <c r="E911" s="4">
+        <v>909541.09699999995</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5">
+      <c r="A912" s="4">
+        <v>23440</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C912" s="4">
+        <v>7.684093713760376E-2</v>
+      </c>
+      <c r="D912" s="4">
+        <v>0.60397195816040039</v>
+      </c>
+      <c r="E912" s="4">
+        <v>932613.64524999994</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5">
+      <c r="A913" s="4">
+        <v>33340</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="C913" s="4">
+        <v>3.3427130430936813E-2</v>
+      </c>
+      <c r="D913" s="4">
+        <v>0.5105140209197998</v>
+      </c>
+      <c r="E913" s="4">
+        <v>969159.33199999994</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5">
+      <c r="A914" s="4">
+        <v>42040</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C914" s="4">
+        <v>3.4297436475753777E-2</v>
+      </c>
+      <c r="D914" s="4">
+        <v>0.58644860982894897</v>
+      </c>
+      <c r="E914" s="4">
+        <v>1032507.48</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5">
+      <c r="A915" s="4">
+        <v>46070</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="C915" s="4">
+        <v>2.0390009507536892E-2</v>
+      </c>
+      <c r="D915" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E915" s="4">
+        <v>940247.33575000009</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5">
+      <c r="A916" s="4">
+        <v>47770</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="C916" s="4">
+        <v>5.8962449431419373E-2</v>
+      </c>
+      <c r="D916" s="4">
+        <v>0.62383174896240234</v>
+      </c>
+      <c r="E916" s="4">
+        <v>823501.13899999997</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5">
+      <c r="A917" s="4">
+        <v>45970</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C917" s="4">
+        <v>1.6918795183300969E-2</v>
+      </c>
+      <c r="D917" s="4">
+        <v>0.49649533629417419</v>
+      </c>
+      <c r="E917" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5">
+      <c r="A918" s="4">
+        <v>52330</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="C918" s="4">
+        <v>3.4562688320875168E-2</v>
+      </c>
+      <c r="D918" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E918" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5">
+      <c r="A919" s="4">
+        <v>40350</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="C919" s="4">
+        <v>2.6729609817266461E-2</v>
+      </c>
+      <c r="D919" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E919" s="4">
+        <v>1013661.3265</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5">
+      <c r="A920" s="4">
+        <v>54780</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C920" s="4">
+        <v>7.4805435724556446E-3</v>
+      </c>
+      <c r="D920" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E920" s="4">
+        <v>920013.91525000008</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5">
+      <c r="A921" s="4">
+        <v>43090</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="C921" s="4">
+        <v>2.8853669762611389E-2</v>
+      </c>
+      <c r="D921" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E921" s="4">
+        <v>845264.5817499999</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5">
+      <c r="A922" s="4">
+        <v>9520</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="C922" s="4">
+        <v>1.7386788502335548E-2</v>
+      </c>
+      <c r="D922" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E922" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5">
+      <c r="A923" s="4">
+        <v>35200</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C923" s="4">
+        <v>2.9187072068452839E-2</v>
+      </c>
+      <c r="D923" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E923" s="4">
+        <v>1084096.7205000001</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5">
+      <c r="A924" s="4">
+        <v>23760</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="C924" s="4">
+        <v>1.677063759416342E-3</v>
+      </c>
+      <c r="D924" s="4">
+        <v>0.51285046339035034</v>
+      </c>
+      <c r="E924" s="4">
+        <v>1015125.1587</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5">
+      <c r="A925" s="4">
+        <v>21650</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="C925" s="4">
+        <v>3.341071680188179E-2</v>
+      </c>
+      <c r="D925" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E925" s="4">
+        <v>957789.38125000009</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5">
+      <c r="A926" s="4">
+        <v>37230</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C926" s="4">
+        <v>1.3010607101023201E-2</v>
+      </c>
+      <c r="D926" s="4">
+        <v>0.50467288494110107</v>
+      </c>
+      <c r="E926" s="4">
+        <v>931182.01524999994</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5">
+      <c r="A927" s="4">
+        <v>47080</v>
+      </c>
+      <c r="B927" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="C927" s="4">
+        <v>4.0256913751363747E-2</v>
+      </c>
+      <c r="D927" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E927" s="4">
+        <v>966726.35950000002</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5">
+      <c r="A928" s="4">
+        <v>70590</v>
+      </c>
+      <c r="B928" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="C928" s="4">
+        <v>3.117740340530872E-2</v>
+      </c>
+      <c r="D928" s="4">
+        <v>0.47897195816040039</v>
+      </c>
+      <c r="E928" s="4">
+        <v>911444.50749999972</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5">
+      <c r="A929" s="4">
+        <v>8800</v>
+      </c>
+      <c r="B929" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C929" s="4">
+        <v>7.1167156100273132E-2</v>
+      </c>
+      <c r="D929" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E929" s="4">
+        <v>1113624.030400001</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5">
+      <c r="A930" s="4">
+        <v>28080</v>
+      </c>
+      <c r="B930" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="C930" s="4">
+        <v>9.534505195915699E-3</v>
+      </c>
+      <c r="D930" s="4">
+        <v>0.54672896862030029</v>
+      </c>
+      <c r="E930" s="4">
+        <v>972440.79999999993</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5">
+      <c r="A931" s="4">
+        <v>65510</v>
+      </c>
+      <c r="B931" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="C931" s="4">
+        <v>3.9858505129814148E-2</v>
+      </c>
+      <c r="D931" s="4">
+        <v>0.48364487290382391</v>
+      </c>
+      <c r="E931" s="4">
+        <v>983825.2074999999</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5">
+      <c r="A932" s="4">
+        <v>11150</v>
+      </c>
+      <c r="B932" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="C932" s="4">
+        <v>3.5842370241880417E-2</v>
+      </c>
+      <c r="D932" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E932" s="4">
+        <v>988779.70400000003</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5">
+      <c r="A933" s="4">
+        <v>7700</v>
+      </c>
+      <c r="B933" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C933" s="4">
+        <v>3.0893266201019291E-2</v>
+      </c>
+      <c r="D933" s="4">
+        <v>0.53271025419235229</v>
+      </c>
+      <c r="E933" s="4">
+        <v>1018051.57</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5">
+      <c r="A934" s="4">
+        <v>1390</v>
+      </c>
+      <c r="B934" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="C934" s="4">
+        <v>3.1944718211889267E-2</v>
+      </c>
+      <c r="D934" s="4">
+        <v>0.53387850522994995</v>
+      </c>
+      <c r="E934" s="4">
+        <v>999280.25249999994</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5">
+      <c r="A935" s="4">
+        <v>51910</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="C935" s="4">
+        <v>2.3662976920604709E-2</v>
+      </c>
+      <c r="D935" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E935" s="4">
+        <v>1005923.35</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5">
+      <c r="A936" s="4">
+        <v>6260</v>
+      </c>
+      <c r="B936" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C936" s="4">
+        <v>1.6582859680056568E-2</v>
+      </c>
+      <c r="D936" s="4">
+        <v>0.48364487290382391</v>
+      </c>
+      <c r="E936" s="4">
+        <v>1100888.06</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5">
+      <c r="A937" s="4">
+        <v>3570</v>
+      </c>
+      <c r="B937" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C937" s="4">
+        <v>1.9511016085743901E-2</v>
+      </c>
+      <c r="D937" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E937" s="4">
+        <v>1062101.8914999999</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5">
+      <c r="A938" s="4">
+        <v>1380</v>
+      </c>
+      <c r="B938" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C938" s="4">
+        <v>2.3005897179245949E-2</v>
+      </c>
+      <c r="D938" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E938" s="4">
+        <v>932524.52624999976</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5">
+      <c r="A939" s="4">
+        <v>77970</v>
+      </c>
+      <c r="B939" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C939" s="4">
+        <v>6.4109161496162415E-2</v>
+      </c>
+      <c r="D939" s="4">
+        <v>0.6144859790802002</v>
+      </c>
+      <c r="E939" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5">
+      <c r="A940" s="4">
+        <v>500</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="C940" s="4">
+        <v>1.8705971539020538E-2</v>
+      </c>
+      <c r="D940" s="4">
+        <v>0.52570092678070068</v>
+      </c>
+      <c r="E940" s="4">
+        <v>1082503.54</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5">
+      <c r="A941" s="4">
+        <v>860</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="C941" s="4">
+        <v>3.2425321638584137E-2</v>
+      </c>
+      <c r="D941" s="4">
+        <v>0.52219623327255249</v>
+      </c>
+      <c r="E941" s="4">
+        <v>1007765.55</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5">
+      <c r="A942" s="4">
+        <v>9450</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C942" s="4">
+        <v>3.3213190734386437E-2</v>
+      </c>
+      <c r="D942" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E942" s="4">
+        <v>1039746.83</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5">
+      <c r="A943" s="4">
+        <v>17900</v>
+      </c>
+      <c r="B943" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C943" s="4">
+        <v>1.7631212249398232E-2</v>
+      </c>
+      <c r="D943" s="4">
+        <v>0.49883177876472468</v>
+      </c>
+      <c r="E943" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5">
+      <c r="A944" s="4">
+        <v>14530</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C944" s="4">
+        <v>6.2894947826862335E-2</v>
+      </c>
+      <c r="D944" s="4">
+        <v>0.56542056798934937</v>
+      </c>
+      <c r="E944" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5">
+      <c r="A945" s="4">
+        <v>74610</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C945" s="4">
+        <v>2.9045406728982929E-2</v>
+      </c>
+      <c r="D945" s="4">
+        <v>0.47780373692512512</v>
+      </c>
+      <c r="E945" s="4">
+        <v>1726069.0125</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5">
+      <c r="A946" s="4">
+        <v>8350</v>
+      </c>
+      <c r="B946" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C946" s="4">
+        <v>5.4511995986104012E-3</v>
+      </c>
+      <c r="D946" s="4">
+        <v>0.50467288494110107</v>
+      </c>
+      <c r="E946" s="4">
+        <v>1087713.55375</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5">
+      <c r="A947" s="4">
+        <v>490</v>
+      </c>
+      <c r="B947" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="C947" s="4">
+        <v>1.8992079421877861E-2</v>
+      </c>
+      <c r="D947" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E947" s="4">
+        <v>1227516.1000000001</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5">
+      <c r="A948" s="4">
+        <v>5750</v>
+      </c>
+      <c r="B948" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C948" s="4">
+        <v>4.523482546210289E-2</v>
+      </c>
+      <c r="D948" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E948" s="4">
+        <v>939952.02499999991</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5">
+      <c r="A949" s="4">
+        <v>300</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C949" s="4">
+        <v>7.6666581444442272E-3</v>
+      </c>
+      <c r="D949" s="4">
+        <v>0.51168227195739746</v>
+      </c>
+      <c r="E949" s="4">
+        <v>1028164.74775</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5">
+      <c r="A950" s="4">
+        <v>1520</v>
+      </c>
+      <c r="B950" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="C950" s="4">
+        <v>1.0636556893587111E-2</v>
+      </c>
+      <c r="D950" s="4">
+        <v>0.54906541109085083</v>
+      </c>
+      <c r="E950" s="4">
+        <v>945935.62575000012</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5">
+      <c r="A951" s="4">
+        <v>49770</v>
+      </c>
+      <c r="B951" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C951" s="4">
+        <v>3.4188065677881241E-2</v>
+      </c>
+      <c r="D951" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E951" s="4">
+        <v>923063.5</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5">
+      <c r="A952" s="4">
+        <v>7340</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C952" s="4">
+        <v>2.764632552862167E-2</v>
+      </c>
+      <c r="D952" s="4">
+        <v>0.46144860982894897</v>
+      </c>
+      <c r="E952" s="4">
+        <v>983662.46499999997</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5">
+      <c r="A953" s="4">
+        <v>12690</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="C953" s="4">
+        <v>4.2080707848072052E-2</v>
+      </c>
+      <c r="D953" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E953" s="4">
+        <v>904907.82250000013</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5">
+      <c r="A954" s="4">
+        <v>5360</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="C954" s="4">
+        <v>1.4255750924348829E-2</v>
+      </c>
+      <c r="D954" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E954" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5">
+      <c r="A955" s="4">
+        <v>6800</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C955" s="4">
+        <v>1.6539860516786579E-2</v>
+      </c>
+      <c r="D955" s="4">
+        <v>0.53971964120864868</v>
+      </c>
+      <c r="E955" s="4">
+        <v>1264748.656</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5">
+      <c r="A956" s="4">
+        <v>3650</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C956" s="4">
+        <v>2.5103777647018429E-2</v>
+      </c>
+      <c r="D956" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E956" s="4">
+        <v>1005906.23</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5">
+      <c r="A957" s="4">
+        <v>2410</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C957" s="4">
+        <v>7.8073374927043915E-2</v>
+      </c>
+      <c r="D957" s="4">
+        <v>0.61799067258834839</v>
+      </c>
+      <c r="E957" s="4">
+        <v>1050471.7175</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5">
+      <c r="A958" s="4">
+        <v>3000</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C958" s="4">
+        <v>4.565795511007309E-2</v>
+      </c>
+      <c r="D958" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E958" s="4">
+        <v>877953.64749999985</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5">
+      <c r="A959" s="4">
+        <v>16360</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C959" s="4">
+        <v>1.8021823838353161E-2</v>
+      </c>
+      <c r="D959" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E959" s="4">
+        <v>1206918.6975</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5">
+      <c r="A960" s="4">
+        <v>810</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C960" s="4">
+        <v>2.9690921306610111E-2</v>
+      </c>
+      <c r="D960" s="4">
+        <v>0.46495327353477478</v>
+      </c>
+      <c r="E960" s="4">
+        <v>1043475.7</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5">
+      <c r="A961" s="4">
+        <v>1880</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C961" s="4">
+        <v>2.7434734627604481E-2</v>
+      </c>
+      <c r="D961" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E961" s="4">
+        <v>1302177.55</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5">
+      <c r="A962" s="4">
+        <v>4450</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="C962" s="4">
+        <v>2.8440112248063091E-2</v>
+      </c>
+      <c r="D962" s="4">
+        <v>0.53504675626754761</v>
+      </c>
+      <c r="E962" s="4">
+        <v>1162227.0649999999</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5">
+      <c r="A963" s="4">
+        <v>3080</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="C963" s="4">
+        <v>9.8804868757724762E-2</v>
+      </c>
+      <c r="D963" s="4">
+        <v>0.55140185356140137</v>
+      </c>
+      <c r="E963" s="4">
+        <v>1087211.254</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5">
+      <c r="A964" s="4">
+        <v>13000</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C964" s="4">
+        <v>3.7232324481010437E-2</v>
+      </c>
+      <c r="D964" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E964" s="4">
+        <v>954282.43224999995</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5">
+      <c r="A965" s="4">
+        <v>29530</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="C965" s="4">
+        <v>3.0855970457196239E-2</v>
+      </c>
+      <c r="D965" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E965" s="4">
+        <v>1062915.22</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5">
+      <c r="A966" s="4">
+        <v>4970</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="C966" s="4">
+        <v>4.2564071714878082E-2</v>
+      </c>
+      <c r="D966" s="4">
+        <v>0.53154206275939941</v>
+      </c>
+      <c r="E966" s="4">
+        <v>927882.66249999998</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5">
+      <c r="A967" s="4">
+        <v>55550</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C967" s="4">
+        <v>2.441688068211079E-2</v>
+      </c>
+      <c r="D967" s="4">
+        <v>0.45911213755607599</v>
+      </c>
+      <c r="E967" s="4">
+        <v>1025752.35</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5">
+      <c r="A968" s="4">
+        <v>4770</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="C968" s="4">
+        <v>1.1113159358501431E-2</v>
+      </c>
+      <c r="D968" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E968" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5">
+      <c r="A969" s="4">
+        <v>2250</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="C969" s="4">
+        <v>3.6896023899316788E-2</v>
+      </c>
+      <c r="D969" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E969" s="4">
+        <v>976179.51500000001</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5">
+      <c r="A970" s="4">
+        <v>3060</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C970" s="4">
+        <v>6.7964039742946625E-2</v>
+      </c>
+      <c r="D970" s="4">
+        <v>0.51518690586090088</v>
+      </c>
+      <c r="E970" s="4">
+        <v>930828.51449999993</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5">
+      <c r="A971" s="4">
+        <v>6980</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="C971" s="4">
+        <v>1.0157475247979161E-2</v>
+      </c>
+      <c r="D971" s="4">
+        <v>0.47897195816040039</v>
+      </c>
+      <c r="E971" s="4">
+        <v>896751.45699999994</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5">
+      <c r="A972" s="4">
+        <v>7110</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="C972" s="4">
+        <v>4.0920688770711422E-3</v>
+      </c>
+      <c r="D972" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E972" s="4">
+        <v>1044076.0485</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5">
+      <c r="A973" s="4">
+        <v>6220</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C973" s="4">
+        <v>5.4580807685852051E-2</v>
+      </c>
+      <c r="D973" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E973" s="4">
+        <v>1030113.224</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5">
+      <c r="A974" s="4">
+        <v>9310</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="C974" s="4">
+        <v>3.3716477453708649E-2</v>
+      </c>
+      <c r="D974" s="4">
+        <v>0.71378505229949951</v>
+      </c>
+      <c r="E974" s="4">
+        <v>930669.96649999998</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5">
+      <c r="A975" s="4">
+        <v>12600</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C975" s="4">
+        <v>8.0037349835038185E-3</v>
+      </c>
+      <c r="D975" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E975" s="4">
+        <v>934649.55200000003</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5">
+      <c r="A976" s="4">
+        <v>6380</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C976" s="4">
+        <v>9.0388292446732521E-3</v>
+      </c>
+      <c r="D976" s="4">
+        <v>0.50467288494110107</v>
+      </c>
+      <c r="E976" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5">
+      <c r="A977" s="4">
+        <v>11280</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="C977" s="4">
+        <v>1.6575532034039501E-2</v>
+      </c>
+      <c r="D977" s="4">
+        <v>0.49766355752944952</v>
+      </c>
+      <c r="E977" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5">
+      <c r="A978" s="4">
+        <v>78000</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C978" s="4">
+        <v>2.038613893091679E-2</v>
+      </c>
+      <c r="D978" s="4">
+        <v>0.56542056798934937</v>
+      </c>
+      <c r="E978" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5">
+      <c r="A979" s="4">
+        <v>19180</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C979" s="4">
+        <v>2.9877157881855961E-2</v>
+      </c>
+      <c r="D979" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E979" s="4">
+        <v>942850.25425</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5">
+      <c r="A980" s="4">
+        <v>15760</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="C980" s="4">
+        <v>3.2798778265714652E-2</v>
+      </c>
+      <c r="D980" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E980" s="4">
+        <v>965547.23000000021</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5">
+      <c r="A981" s="4">
+        <v>2300</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C981" s="4">
+        <v>2.8517976403236389E-2</v>
+      </c>
+      <c r="D981" s="4">
+        <v>0.54672896862030029</v>
+      </c>
+      <c r="E981" s="4">
+        <v>956982.24500000011</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5">
+      <c r="A982" s="4">
+        <v>8930</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C982" s="4">
+        <v>4.0676090866327293E-2</v>
+      </c>
+      <c r="D982" s="4">
+        <v>0.51752334833145142</v>
+      </c>
+      <c r="E982" s="4">
+        <v>1356063.44</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5">
+      <c r="A983" s="4">
+        <v>4150</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="C983" s="4">
+        <v>2.3595495149493221E-2</v>
+      </c>
+      <c r="D983" s="4">
+        <v>0.54672896862030029</v>
+      </c>
+      <c r="E983" s="4">
+        <v>1012636.2445</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5">
+      <c r="A984" s="4">
+        <v>12450</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="C984" s="4">
+        <v>2.3958077654242519E-2</v>
+      </c>
+      <c r="D984" s="4">
+        <v>0.51285046339035034</v>
+      </c>
+      <c r="E984" s="4">
+        <v>966521.1449999999</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5">
+      <c r="A985" s="4">
+        <v>3530</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C985" s="4">
+        <v>7.4598900973796836E-3</v>
+      </c>
+      <c r="D985" s="4">
+        <v>0.5432242751121521</v>
+      </c>
+      <c r="E985" s="4">
+        <v>1583797.2895</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5">
+      <c r="A986" s="4">
+        <v>4020</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="C986" s="4">
+        <v>1.6819469630718231E-2</v>
+      </c>
+      <c r="D986" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E986" s="4">
+        <v>1166712.7450000001</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5">
+      <c r="A987" s="4">
+        <v>11760</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C987" s="4">
+        <v>8.8233448565006256E-2</v>
+      </c>
+      <c r="D987" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E987" s="4">
+        <v>966082.24</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5">
+      <c r="A988" s="4">
+        <v>1450</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C988" s="4">
+        <v>2.5825450196862221E-2</v>
+      </c>
+      <c r="D988" s="4">
+        <v>0.4824766218662262</v>
+      </c>
+      <c r="E988" s="4">
+        <v>1053017.4450000001</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5">
+      <c r="A989" s="4">
+        <v>2460</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="C989" s="4">
+        <v>4.775000736117363E-2</v>
+      </c>
+      <c r="D989" s="4">
+        <v>0.53154206275939941</v>
+      </c>
+      <c r="E989" s="4">
+        <v>1094268.6625000001</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5">
+      <c r="A990" s="4">
+        <v>13520</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="C990" s="4">
+        <v>3.9132576435804367E-2</v>
+      </c>
+      <c r="D990" s="4">
+        <v>0.48831775784492493</v>
+      </c>
+      <c r="E990" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5">
+      <c r="A991" s="4">
+        <v>35760</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C991" s="4">
+        <v>4.386572539806366E-2</v>
+      </c>
+      <c r="D991" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E991" s="4">
+        <v>964984.35</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5">
+      <c r="A992" s="4">
+        <v>78150</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="C992" s="4">
+        <v>3.0494403094053268E-2</v>
+      </c>
+      <c r="D992" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E992" s="4">
+        <v>841635.29299999995</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5">
+      <c r="A993" s="4">
+        <v>67290</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C993" s="4">
+        <v>1.6420215368270871E-2</v>
+      </c>
+      <c r="D993" s="4">
+        <v>0.46028038859367371</v>
+      </c>
+      <c r="E993" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5">
+      <c r="A994" s="4">
+        <v>21320</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C994" s="4">
+        <v>8.2590855658054352E-2</v>
+      </c>
+      <c r="D994" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E994" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5">
+      <c r="A995" s="4">
+        <v>60720</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C995" s="4">
+        <v>3.0385455116629601E-2</v>
+      </c>
+      <c r="D995" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E995" s="4">
+        <v>941777.15999999992</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5">
+      <c r="A996" s="4">
+        <v>24940</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C996" s="4">
+        <v>1.213141158223152E-2</v>
+      </c>
+      <c r="D996" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E996" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5">
+      <c r="A997" s="4">
+        <v>46140</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C997" s="4">
+        <v>3.5503953695297241E-2</v>
+      </c>
+      <c r="D997" s="4">
+        <v>0.53154206275939941</v>
+      </c>
+      <c r="E997" s="4">
+        <v>1060929.3685000001</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5">
+      <c r="A998" s="4">
+        <v>38340</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C998" s="4">
+        <v>5.5910620838403702E-2</v>
+      </c>
+      <c r="D998" s="4">
+        <v>0.57242989540100098</v>
+      </c>
+      <c r="E998" s="4">
+        <v>994714.84000000008</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5">
+      <c r="A999" s="4">
+        <v>53950</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C999" s="4">
+        <v>6.2547698616981506E-2</v>
+      </c>
+      <c r="D999" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E999" s="4">
+        <v>1614944.5325</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5">
+      <c r="A1000" s="4">
+        <v>49720</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1000" s="4">
+        <v>4.0466427803039551E-2</v>
+      </c>
+      <c r="D1000" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E1000" s="4">
+        <v>966056.8</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5">
+      <c r="A1001" s="4">
+        <v>66620</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1001" s="4">
+        <v>4.1684091091156013E-2</v>
+      </c>
+      <c r="D1001" s="4">
+        <v>0.51518690586090088</v>
+      </c>
+      <c r="E1001" s="4">
+        <v>1152284.77</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5">
+      <c r="A1002" s="4">
+        <v>65170</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1002" s="4">
+        <v>1.2591768987476829E-2</v>
+      </c>
+      <c r="D1002" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E1002" s="4">
+        <v>985054.72499999986</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5">
+      <c r="A1003" s="4">
+        <v>65560</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1003" s="4">
+        <v>4.2926512658596039E-2</v>
+      </c>
+      <c r="D1003" s="4">
+        <v>0.51985979080200195</v>
+      </c>
+      <c r="E1003" s="4">
+        <v>883451.56299999997</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5">
+      <c r="A1004" s="4">
+        <v>5710</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1004" s="4">
+        <v>2.8411675244569778E-2</v>
+      </c>
+      <c r="D1004" s="4">
+        <v>0.54672896862030029</v>
+      </c>
+      <c r="E1004" s="4">
+        <v>1045887.1525</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5">
+      <c r="A1005" s="4">
+        <v>23910</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1005" s="4">
+        <v>3.2405830919742577E-2</v>
+      </c>
+      <c r="D1005" s="4">
+        <v>0.48130840063095093</v>
+      </c>
+      <c r="E1005" s="4">
+        <v>1185920.925</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="4">
+        <v>17680</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1006" s="4">
+        <v>1.509452611207962E-2</v>
+      </c>
+      <c r="D1006" s="4">
+        <v>0.47079437971115112</v>
+      </c>
+      <c r="E1006" s="4">
+        <v>949668.40624999988</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" s="4">
+        <v>13120</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1007" s="4">
+        <v>5.4238505661487579E-2</v>
+      </c>
+      <c r="D1007" s="4">
+        <v>0.53271025419235229</v>
+      </c>
+      <c r="E1007" s="4">
+        <v>1003810.66525</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5">
+      <c r="A1008" s="4">
+        <v>33310</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1008" s="4">
+        <v>3.1044824048876759E-2</v>
+      </c>
+      <c r="D1008" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E1008" s="4">
+        <v>1048068.8155</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5">
+      <c r="A1009" s="4">
+        <v>72870</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1009" s="4">
+        <v>1.6593566164374352E-2</v>
+      </c>
+      <c r="D1009" s="4">
+        <v>0.56425231695175171</v>
+      </c>
+      <c r="E1009" s="4">
+        <v>945364.98</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5">
+      <c r="A1010" s="4">
+        <v>6920</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1010" s="4">
+        <v>2.1504070609807972E-2</v>
+      </c>
+      <c r="D1010" s="4">
+        <v>0.47079437971115112</v>
+      </c>
+      <c r="E1010" s="4">
+        <v>823945.60050000006</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5">
+      <c r="A1011" s="4">
+        <v>18700</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1011" s="4">
+        <v>4.7052357345819473E-2</v>
+      </c>
+      <c r="D1011" s="4">
+        <v>0.50116825103759766</v>
+      </c>
+      <c r="E1011" s="4">
+        <v>939958.72000000009</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5">
+      <c r="A1012" s="4">
+        <v>6910</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1012" s="4">
+        <v>4.6320576220750809E-2</v>
+      </c>
+      <c r="D1012" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E1012" s="4">
+        <v>867445.36000000022</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5">
+      <c r="A1013" s="4">
+        <v>42370</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C1013" s="4">
+        <v>2.000005915760994E-2</v>
+      </c>
+      <c r="D1013" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E1013" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5">
+      <c r="A1014" s="4">
+        <v>32850</v>
+      </c>
+      <c r="B1014" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1014" s="4">
+        <v>2.1888682618737221E-2</v>
+      </c>
+      <c r="D1014" s="4">
+        <v>0.49649533629417419</v>
+      </c>
+      <c r="E1014" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5">
+      <c r="A1015" s="4">
+        <v>18310</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1015" s="4">
+        <v>4.6090438961982727E-2</v>
+      </c>
+      <c r="D1015" s="4">
+        <v>0.52570092678070068</v>
+      </c>
+      <c r="E1015" s="4">
+        <v>1027438.3275</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5">
+      <c r="A1016" s="4">
+        <v>54540</v>
+      </c>
+      <c r="B1016" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1016" s="4">
+        <v>1.513748429715633E-2</v>
+      </c>
+      <c r="D1016" s="4">
+        <v>0.51752334833145142</v>
+      </c>
+      <c r="E1016" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5">
+      <c r="A1017" s="4">
+        <v>46390</v>
+      </c>
+      <c r="B1017" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1017" s="4">
+        <v>2.845068275928497E-2</v>
+      </c>
+      <c r="D1017" s="4">
+        <v>0.52102804183959961</v>
+      </c>
+      <c r="E1017" s="4">
+        <v>937307.31550000003</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5">
+      <c r="A1018" s="4">
+        <v>6730</v>
+      </c>
+      <c r="B1018" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C1018" s="4">
+        <v>9.3627022579312325E-3</v>
+      </c>
+      <c r="D1018" s="4">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="E1018" s="4">
+        <v>987861.78249999997</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5">
+      <c r="A1019" s="4">
+        <v>15750</v>
+      </c>
+      <c r="B1019" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1019" s="4">
+        <v>1.9571594893932339E-2</v>
+      </c>
+      <c r="D1019" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E1019" s="4">
+        <v>1021370.99</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5">
+      <c r="A1020" s="4">
+        <v>13810</v>
+      </c>
+      <c r="B1020" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1020" s="4">
+        <v>4.2047228664159768E-2</v>
+      </c>
+      <c r="D1020" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E1020" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5">
+      <c r="A1021" s="4">
+        <v>65350</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1021" s="4">
+        <v>1.547874882817268E-2</v>
+      </c>
+      <c r="D1021" s="4">
+        <v>0.51285046339035034</v>
+      </c>
+      <c r="E1021" s="4">
+        <v>998966.23375000001</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5">
+      <c r="A1022" s="4">
+        <v>17000</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1022" s="4">
+        <v>6.3251987099647522E-2</v>
+      </c>
+      <c r="D1022" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E1022" s="4">
+        <v>910160.78299999994</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5">
+      <c r="A1023" s="4">
+        <v>36710</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1023" s="4">
+        <v>2.5684129446744919E-2</v>
+      </c>
+      <c r="D1023" s="4">
+        <v>0.5245327353477478</v>
+      </c>
+      <c r="E1023" s="4">
+        <v>904568.60399999993</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5">
+      <c r="A1024" s="4">
+        <v>54800</v>
+      </c>
+      <c r="B1024" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1024" s="4">
+        <v>2.1904610097408291E-2</v>
+      </c>
+      <c r="D1024" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E1024" s="4">
+        <v>1001410.015</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5">
+      <c r="A1025" s="4">
+        <v>31310</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1025" s="4">
+        <v>4.2703053914010516E-3</v>
+      </c>
+      <c r="D1025" s="4">
+        <v>0.52686917781829834</v>
+      </c>
+      <c r="E1025" s="4">
+        <v>932037.70000000007</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5">
+      <c r="A1026" s="4">
+        <v>23890</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1026" s="4">
+        <v>2.0451631397008899E-2</v>
+      </c>
+      <c r="D1026" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E1026" s="4">
+        <v>967863.43</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5">
+      <c r="A1027" s="4">
+        <v>1540</v>
+      </c>
+      <c r="B1027" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1027" s="4">
+        <v>3.7893101572990417E-2</v>
+      </c>
+      <c r="D1027" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E1027" s="4">
+        <v>884687.51249999984</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5">
+      <c r="A1028" s="4">
+        <v>53800</v>
+      </c>
+      <c r="B1028" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C1028" s="4">
+        <v>1.93753931671381E-2</v>
+      </c>
+      <c r="D1028" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E1028" s="4">
+        <v>901116.505</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5">
+      <c r="A1029" s="4">
+        <v>61040</v>
+      </c>
+      <c r="B1029" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1029" s="4">
+        <v>2.7407076209783551E-2</v>
+      </c>
+      <c r="D1029" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E1029" s="4">
+        <v>1028158.76</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5">
+      <c r="A1030" s="4">
+        <v>41510</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1030" s="4">
+        <v>2.6748985052108761E-2</v>
+      </c>
+      <c r="D1030" s="4">
+        <v>0.46495327353477478</v>
+      </c>
+      <c r="E1030" s="4">
+        <v>962048.63749999984</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5">
+      <c r="A1031" s="4">
+        <v>64090</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1031" s="4">
+        <v>3.8852948695421219E-2</v>
+      </c>
+      <c r="D1031" s="4">
+        <v>0.51635515689849854</v>
+      </c>
+      <c r="E1031" s="4">
+        <v>1442884.96</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5">
+      <c r="A1032" s="4">
+        <v>54940</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1032" s="4">
+        <v>1.2740109115838999E-2</v>
+      </c>
+      <c r="D1032" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E1032" s="4">
+        <v>935805.77949999983</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5">
+      <c r="A1033" s="4">
+        <v>36000</v>
+      </c>
+      <c r="B1033" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1033" s="4">
+        <v>2.2870378568768501E-2</v>
+      </c>
+      <c r="D1033" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E1033" s="4">
+        <v>1894886.7830000001</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5">
+      <c r="A1034" s="4">
+        <v>39830</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1034" s="4">
+        <v>3.4048054367303848E-2</v>
+      </c>
+      <c r="D1034" s="4">
+        <v>0.47429907321929932</v>
+      </c>
+      <c r="E1034" s="4">
+        <v>1014398.56</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5">
+      <c r="A1035" s="4">
+        <v>10470</v>
+      </c>
+      <c r="B1035" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C1035" s="4">
+        <v>4.6183992177248001E-2</v>
+      </c>
+      <c r="D1035" s="4">
+        <v>0.49532711505889893</v>
+      </c>
+      <c r="E1035" s="4">
+        <v>987267.77500000002</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5">
+      <c r="A1036" s="4">
+        <v>49480</v>
+      </c>
+      <c r="B1036" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1036" s="4">
+        <v>4.7603469341993332E-2</v>
+      </c>
+      <c r="D1036" s="4">
+        <v>0.4894859790802002</v>
+      </c>
+      <c r="E1036" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5">
+      <c r="A1037" s="4">
+        <v>30530</v>
+      </c>
+      <c r="B1037" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1037" s="4">
+        <v>3.5184487700462341E-2</v>
+      </c>
+      <c r="D1037" s="4">
+        <v>0.47897195816040039</v>
+      </c>
+      <c r="E1037" s="4">
+        <v>1119188.03</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5">
+      <c r="A1038" s="4">
+        <v>12620</v>
+      </c>
+      <c r="B1038" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1038" s="4">
+        <v>3.632890060544014E-2</v>
+      </c>
+      <c r="D1038" s="4">
+        <v>0.54439252614974976</v>
+      </c>
+      <c r="E1038" s="4">
+        <v>1004380.52</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5">
+      <c r="A1039" s="4">
+        <v>18000</v>
+      </c>
+      <c r="B1039" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1039" s="4">
+        <v>2.4278163909912109E-2</v>
+      </c>
+      <c r="D1039" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E1039" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5">
+      <c r="A1040" s="4">
+        <v>69330</v>
+      </c>
+      <c r="B1040" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1040" s="4">
+        <v>3.6385059356689453E-2</v>
+      </c>
+      <c r="D1040" s="4">
+        <v>0.52102804183959961</v>
+      </c>
+      <c r="E1040" s="4">
+        <v>1142448.4915</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5">
+      <c r="A1041" s="4">
+        <v>23410</v>
+      </c>
+      <c r="B1041" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1041" s="4">
+        <v>1.7721584066748619E-2</v>
+      </c>
+      <c r="D1041" s="4">
+        <v>0.48014017939567571</v>
+      </c>
+      <c r="E1041" s="4">
+        <v>1059884.692</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5">
+      <c r="A1042" s="4">
+        <v>33600</v>
+      </c>
+      <c r="B1042" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1042" s="4">
+        <v>5.4060161113739007E-2</v>
+      </c>
+      <c r="D1042" s="4">
+        <v>0.48714953660964971</v>
+      </c>
+      <c r="E1042" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5">
+      <c r="A1043" s="4">
+        <v>16250</v>
+      </c>
+      <c r="B1043" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1043" s="4">
+        <v>4.2572986334562302E-2</v>
+      </c>
+      <c r="D1043" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E1043" s="4">
+        <v>976826.22499999986</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5">
+      <c r="A1044" s="4">
+        <v>60150</v>
+      </c>
+      <c r="B1044" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C1044" s="4">
+        <v>9.2764245346188545E-3</v>
+      </c>
+      <c r="D1044" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E1044" s="4">
+        <v>1158512.3655000001</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5">
+      <c r="A1045" s="4">
+        <v>65530</v>
+      </c>
+      <c r="B1045" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C1045" s="4">
+        <v>5.0393301993608468E-2</v>
+      </c>
+      <c r="D1045" s="4">
+        <v>0.53738319873809814</v>
+      </c>
+      <c r="E1045" s="4">
+        <v>971583.78249999997</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5">
+      <c r="A1046" s="4">
+        <v>36420</v>
+      </c>
+      <c r="B1046" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1046" s="4">
+        <v>2.2497430443763729E-2</v>
+      </c>
+      <c r="D1046" s="4">
+        <v>0.45677569508552551</v>
+      </c>
+      <c r="E1046" s="4">
+        <v>894796.58699999982</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5">
+      <c r="A1047" s="4">
+        <v>72020</v>
+      </c>
+      <c r="B1047" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1047" s="4">
+        <v>4.1109807789325707E-2</v>
+      </c>
+      <c r="D1047" s="4">
+        <v>0.49415886402130133</v>
+      </c>
+      <c r="E1047" s="4">
+        <v>924108.9225000001</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5">
+      <c r="A1048" s="4">
+        <v>65060</v>
+      </c>
+      <c r="B1048" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1048" s="4">
+        <v>5.3644321858882897E-2</v>
+      </c>
+      <c r="D1048" s="4">
+        <v>0.46473780274391169</v>
+      </c>
+      <c r="E1048" s="4">
+        <v>899025.52799999993</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5">
+      <c r="A1049" s="4">
+        <v>13720</v>
+      </c>
+      <c r="B1049" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1049" s="4">
+        <v>2.197800949215889E-2</v>
+      </c>
+      <c r="D1049" s="4">
+        <v>0.46845793724060059</v>
+      </c>
+      <c r="E1049" s="4">
+        <v>971579.27749999997</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5">
+      <c r="A1050" s="4">
+        <v>47820</v>
+      </c>
+      <c r="B1050" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C1050" s="4">
+        <v>4.0612339973449707E-2</v>
+      </c>
+      <c r="D1050" s="4">
+        <v>0.48481309413909912</v>
+      </c>
+      <c r="E1050" s="4">
+        <v>915757.18400000001</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5">
+      <c r="A1051" s="4">
+        <v>41960</v>
+      </c>
+      <c r="B1051" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1051" s="4">
+        <v>2.764555998146534E-2</v>
+      </c>
+      <c r="D1051" s="4">
+        <v>0.50584113597869873</v>
+      </c>
+      <c r="E1051" s="4">
+        <v>930324.55</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5">
+      <c r="A1052" s="4">
+        <v>16600</v>
+      </c>
+      <c r="B1052" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1052" s="4">
+        <v>1.0647573508322241E-2</v>
+      </c>
+      <c r="D1052" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E1052" s="4">
+        <v>1209493.3816500001</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5">
+      <c r="A1053" s="4">
+        <v>45520</v>
+      </c>
+      <c r="B1053" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1053" s="4">
+        <v>2.9831968247890469E-2</v>
+      </c>
+      <c r="D1053" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E1053" s="4">
+        <v>594974.28299999994</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5">
+      <c r="A1054" s="4">
+        <v>23160</v>
+      </c>
+      <c r="B1054" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1054" s="4">
+        <v>1.059943344444036E-2</v>
+      </c>
+      <c r="D1054" s="4">
+        <v>0.51869159936904907</v>
+      </c>
+      <c r="E1054" s="4">
+        <v>1119522.8160000001</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5">
+      <c r="A1055" s="4">
+        <v>66700</v>
+      </c>
+      <c r="B1055" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1055" s="4">
+        <v>4.3403532356023788E-2</v>
+      </c>
+      <c r="D1055" s="4">
+        <v>0.46845793724060059</v>
+      </c>
+      <c r="E1055" s="4">
+        <v>939205.12499999988</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5">
+      <c r="A1056" s="4">
+        <v>45340</v>
+      </c>
+      <c r="B1056" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1056" s="4">
+        <v>4.5820105820894241E-2</v>
+      </c>
+      <c r="D1056" s="4">
+        <v>0.47558769583702087</v>
+      </c>
+      <c r="E1056" s="4">
+        <v>937683.79525000008</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5">
+      <c r="A1057" s="4">
+        <v>52290</v>
+      </c>
+      <c r="B1057" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1057" s="4">
+        <v>2.7126617729663849E-2</v>
+      </c>
+      <c r="D1057" s="4">
+        <v>0.42133814096450811</v>
+      </c>
+      <c r="E1057" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5">
+      <c r="A1058" s="4">
+        <v>34230</v>
+      </c>
+      <c r="B1058" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1058" s="4">
+        <v>3.4371577203273773E-2</v>
+      </c>
+      <c r="D1058" s="4">
+        <v>0.50350469350814819</v>
+      </c>
+      <c r="E1058" s="4">
+        <v>827474.53749999998</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5">
+      <c r="A1059" s="4">
+        <v>43370</v>
+      </c>
+      <c r="B1059" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1059" s="4">
+        <v>2.598119713366032E-2</v>
+      </c>
+      <c r="D1059" s="4">
+        <v>0.492990642786026</v>
+      </c>
+      <c r="E1059" s="4">
+        <v>1041963.1375</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5">
+      <c r="A1060" s="4">
+        <v>56730</v>
+      </c>
+      <c r="B1060" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1060" s="4">
+        <v>2.407871559262276E-2</v>
+      </c>
+      <c r="D1060" s="4">
+        <v>0.50233644247055054</v>
+      </c>
+      <c r="E1060" s="4">
+        <v>909550.32400000002</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5">
+      <c r="A1061" s="4">
+        <v>53160</v>
+      </c>
+      <c r="B1061" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1061" s="4">
+        <v>5.7958308607339859E-2</v>
+      </c>
+      <c r="D1061" s="4">
+        <v>0.45931282639503479</v>
+      </c>
+      <c r="E1061" s="4">
+        <v>942085.82200000004</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5">
+      <c r="A1062" s="4">
+        <v>24850</v>
+      </c>
+      <c r="B1062" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1062" s="4">
+        <v>4.3127898126840591E-2</v>
+      </c>
+      <c r="D1062" s="4">
+        <v>0.49547919631004328</v>
+      </c>
+      <c r="E1062" s="4">
+        <v>919983.21644999995</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5">
+      <c r="A1063" s="4">
+        <v>4590</v>
+      </c>
+      <c r="B1063" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1063" s="4">
+        <v>3.6321107298135757E-2</v>
+      </c>
+      <c r="D1063" s="4">
+        <v>0.50934576988220215</v>
+      </c>
+      <c r="E1063" s="4">
+        <v>958257.31000000017</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5">
+      <c r="A1064" s="4">
+        <v>34950</v>
+      </c>
+      <c r="B1064" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1064" s="4">
+        <v>2.3026894778013229E-2</v>
+      </c>
+      <c r="D1064" s="4">
+        <v>0.50700932741165161</v>
+      </c>
+      <c r="E1064" s="4">
+        <v>1091089.46</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5">
+      <c r="A1065" s="4">
+        <v>53590</v>
+      </c>
+      <c r="B1065" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1065" s="4">
+        <v>1.960055343806744E-2</v>
+      </c>
+      <c r="D1065" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E1065" s="4">
+        <v>846001.05799999996</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5">
+      <c r="A1066" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B1066" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1066" s="4">
+        <v>3.6633610725402832E-2</v>
+      </c>
+      <c r="D1066" s="4">
+        <v>0.53154206275939941</v>
+      </c>
+      <c r="E1066" s="4">
+        <v>1110260.385</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5">
+      <c r="A1067" s="4">
+        <v>48410</v>
+      </c>
+      <c r="B1067" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1067" s="4">
+        <v>5.4746128618717187E-2</v>
+      </c>
+      <c r="D1067" s="4">
+        <v>0.49182242155075068</v>
+      </c>
+      <c r="E1067" s="4">
+        <v>1639429.6212500001</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5">
+      <c r="A1068" s="4">
+        <v>53660</v>
+      </c>
+      <c r="B1068" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1068" s="4">
+        <v>4.5773249119520187E-2</v>
+      </c>
+      <c r="D1068" s="4">
+        <v>0.48598131537437439</v>
+      </c>
+      <c r="E1068" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5">
+      <c r="A1069" s="4">
+        <v>61250</v>
+      </c>
+      <c r="B1069" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1069" s="4">
+        <v>3.066668659448624E-2</v>
+      </c>
+      <c r="D1069" s="4">
+        <v>0.47196263074874878</v>
+      </c>
+      <c r="E1069" s="4">
+        <v>947442.74800000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
